--- a/Healthcare/Thermo Fisher Scientific.xlsx
+++ b/Healthcare/Thermo Fisher Scientific.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/To Be Modeled/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Healthcare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C1AB7A-D07E-5249-A176-8FD65878824A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA6BA07C-A856-7049-B7B5-575E5F3D9F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1017,6 +1017,12 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1028,12 +1034,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2538,13 +2538,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>618.35500000000002</v>
+    <v>611.05999999999995</v>
     <v>475.77</v>
-    <v>0.79159999999999997</v>
-    <v>-4.51</v>
-    <v>-7.7780000000000002E-3</v>
-    <v>0.41</v>
-    <v>7.1260000000000008E-4</v>
+    <v>0.79649999999999999</v>
+    <v>-3.71</v>
+    <v>-6.9540000000000001E-3</v>
+    <v>1.54</v>
+    <v>2.9070000000000003E-3</v>
     <v>USD</v>
     <v>Thermo Fisher Scientific Inc. is engaged in serving science. The Company operates through four segments. Life Sciences Solutions segment provides a portfolio of reagents, instruments and consumables used in biological and medical research, discovery and production of new drugs and vaccines, as well as diagnosis of infection and disease. Analytical Instruments segment provides an offering of instruments and the supporting consumables, software and services that are used for a range of applications. Specialty Diagnostics segment offers a range of diagnostic test kits, reagents, culture media, instruments and associated products to serve customers in healthcare, clinical, pharmaceutical, industrial and food safety laboratories. Laboratory Products and Biopharma Services segment offers virtually everything needed for the laboratory. Its brands, including Thermo Scientific, Applied Biosystems, Invitrogen, Fisher Scientific, Unity Lab Services, Patheon and PPD.</v>
     <v>130000</v>
@@ -2552,25 +2552,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>168 Third Avenue, WALTHAM, MA, 02451 US</v>
-    <v>581.77499999999998</v>
+    <v>535.74</v>
     <v>Healthcare Equipment &amp; Supplies</v>
     <v>Stock</v>
-    <v>45022.97992413125</v>
+    <v>45057.963560682816</v>
     <v>0</v>
-    <v>572.34</v>
-    <v>221757208035</v>
+    <v>525.05999999999995</v>
+    <v>204351287527</v>
     <v>THERMO FISHER SCIENTIFIC INC.</v>
     <v>THERMO FISHER SCIENTIFIC INC.</v>
-    <v>580.85</v>
-    <v>32.878999999999998</v>
-    <v>579.86</v>
-    <v>575.35</v>
-    <v>575.76</v>
-    <v>385430100</v>
+    <v>532.09</v>
+    <v>34.753999999999998</v>
+    <v>533.5</v>
+    <v>529.79</v>
+    <v>531.33000000000004</v>
+    <v>385721300</v>
     <v>TMO</v>
     <v>THERMO FISHER SCIENTIFIC INC. (XNYS:TMO)</v>
-    <v>780743</v>
-    <v>1167012</v>
+    <v>2326346</v>
+    <v>1398705</v>
     <v>1960</v>
   </rv>
   <rv s="2">
@@ -3158,10 +3158,10 @@
   <dimension ref="A1:AV118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AK82" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AK77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AN1" sqref="AN1:AV118"/>
+      <selection pane="bottomRight" activeCell="AQ95" sqref="AQ95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5376,15 +5376,15 @@
       </c>
       <c r="AT16" s="30">
         <f>AU101/AM3</f>
-        <v>4.9372638992541464</v>
+        <v>4.5497336641879107</v>
       </c>
       <c r="AU16" s="30">
         <f>AU101/AM28</f>
-        <v>31.907511947482014</v>
+        <v>29.403062953525179</v>
       </c>
       <c r="AV16" s="31">
         <f>AU101/AM106</f>
-        <v>32.087571702358559</v>
+        <v>29.568989658081321</v>
       </c>
     </row>
     <row r="17" spans="1:45" ht="19" x14ac:dyDescent="0.25">
@@ -13509,10 +13509,10 @@
       <c r="AM83" s="1">
         <v>-825000000</v>
       </c>
-      <c r="AT83" s="60" t="s">
+      <c r="AT83" s="62" t="s">
         <v>126</v>
       </c>
-      <c r="AU83" s="61"/>
+      <c r="AU83" s="63"/>
     </row>
     <row r="84" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -13632,10 +13632,10 @@
       <c r="AM84" s="1">
         <v>648000000</v>
       </c>
-      <c r="AT84" s="62" t="s">
+      <c r="AT84" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="AU84" s="63"/>
+      <c r="AU84" s="65"/>
     </row>
     <row r="85" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -14801,10 +14801,10 @@
       <c r="AM93" s="1">
         <v>123000000</v>
       </c>
-      <c r="AT93" s="62" t="s">
+      <c r="AT93" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="AU93" s="63"/>
+      <c r="AU93" s="65"/>
     </row>
     <row r="94" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -15054,7 +15054,7 @@
       </c>
       <c r="AU95" s="39" cm="1">
         <f t="array" ref="AU95">_FV(A1,"Beta")</f>
-        <v>0.79159999999999997</v>
+        <v>0.79649999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15305,7 +15305,7 @@
       </c>
       <c r="AU97" s="36">
         <f>(AU94)+((AU95)*(AU96-AU94))</f>
-        <v>7.5028380000000006E-2</v>
+        <v>7.5239324999999996E-2</v>
       </c>
     </row>
     <row r="98" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -15426,10 +15426,10 @@
       <c r="AM98" s="1">
         <v>-455000000</v>
       </c>
-      <c r="AT98" s="62" t="s">
+      <c r="AT98" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="AU98" s="63"/>
+      <c r="AU98" s="65"/>
     </row>
     <row r="99" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -15680,7 +15680,7 @@
       </c>
       <c r="AU100" s="34">
         <f>AU99/AU103</f>
-        <v>0.13458983395033619</v>
+        <v>0.14439835404424931</v>
       </c>
     </row>
     <row r="101" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15806,7 +15806,7 @@
       </c>
       <c r="AU101" s="40" cm="1">
         <f t="array" ref="AU101">_FV(A1,"Market cap",TRUE)</f>
-        <v>221757208035</v>
+        <v>204351287527</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15932,7 +15932,7 @@
       </c>
       <c r="AU102" s="34">
         <f>AU101/AU103</f>
-        <v>0.86541016604966381</v>
+        <v>0.85560164595575072</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16058,7 +16058,7 @@
       </c>
       <c r="AU103" s="41">
         <f>AU99+AU101</f>
-        <v>256245208035</v>
+        <v>238839287527</v>
       </c>
     </row>
     <row r="104" spans="1:47" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -16179,10 +16179,10 @@
       <c r="AM104" s="11">
         <v>8537000000</v>
       </c>
-      <c r="AT104" s="62" t="s">
+      <c r="AT104" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="AU104" s="63"/>
+      <c r="AU104" s="65"/>
     </row>
     <row r="105" spans="1:47" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -16348,7 +16348,7 @@
       </c>
       <c r="AU105" s="26">
         <f>(AU100*AU92)+(AU102*AU97)</f>
-        <v>6.750933383803398E-2</v>
+        <v>6.714185226348833E-2</v>
       </c>
     </row>
     <row r="106" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16546,7 +16546,7 @@
       <c r="AQ107" s="43"/>
       <c r="AR107" s="46">
         <f>AR106*(1+AU107)/(AU108-AU107)</f>
-        <v>237605701849.66925</v>
+        <v>239677649634.28027</v>
       </c>
       <c r="AS107" s="47" t="s">
         <v>148</v>
@@ -16577,7 +16577,7 @@
       </c>
       <c r="AR108" s="46">
         <f>AR107+AR106</f>
-        <v>247459809266.00873</v>
+        <v>249531757050.61975</v>
       </c>
       <c r="AS108" s="47" t="s">
         <v>144</v>
@@ -16587,14 +16587,14 @@
       </c>
       <c r="AU108" s="51">
         <f>AU105</f>
-        <v>6.750933383803398E-2</v>
+        <v>6.714185226348833E-2</v>
       </c>
     </row>
     <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN109" s="64" t="s">
+      <c r="AN109" s="60" t="s">
         <v>151</v>
       </c>
-      <c r="AO109" s="65"/>
+      <c r="AO109" s="61"/>
     </row>
     <row r="110" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="AN110" s="52" t="s">
@@ -16602,7 +16602,7 @@
       </c>
       <c r="AO110" s="40">
         <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
-        <v>206539464455.87512</v>
+        <v>208368395740.29071</v>
       </c>
     </row>
     <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16629,7 +16629,7 @@
       </c>
       <c r="AO113" s="40">
         <f>AO110+AO111-AO112</f>
-        <v>180575464455.87512</v>
+        <v>182404395740.29071</v>
       </c>
     </row>
     <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16647,7 +16647,7 @@
       </c>
       <c r="AO115" s="55">
         <f>AO113/AO114</f>
-        <v>462.8415369120591</v>
+        <v>467.52935742597123</v>
       </c>
     </row>
     <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16656,7 +16656,7 @@
       </c>
       <c r="AO116" s="56" cm="1">
         <f t="array" ref="AO116">_FV(A1,"Price")</f>
-        <v>575.35</v>
+        <v>529.79</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16665,7 +16665,7 @@
       </c>
       <c r="AO117" s="58">
         <f>AO115/AO116-1</f>
-        <v>-0.19554786319273643</v>
+        <v>-0.11751947483725389</v>
       </c>
     </row>
     <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">

--- a/Healthcare/Thermo Fisher Scientific.xlsx
+++ b/Healthcare/Thermo Fisher Scientific.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Healthcare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA6BA07C-A856-7049-B7B5-575E5F3D9F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11E56E1-31EB-B145-90B6-FD77B2CC8AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40960" yWindow="5540" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -510,9 +510,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -551,16 +548,45 @@
   <si>
     <t>Buy/Sell</t>
   </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -729,7 +755,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -835,22 +861,13 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -858,47 +875,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -940,99 +922,96 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1085,9 +1064,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>TMO</a:t>
+              <a:t>Thermo Fisher Scientific</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1095,8 +1073,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.46127240773286465"/>
-          <c:y val="2.5007106529199779E-2"/>
+          <c:x val="0.33869391857932651"/>
+          <c:y val="3.624956828762177E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1132,10 +1110,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.6256590509666081E-2"/>
-          <c:y val="0.12169367386436947"/>
-          <c:w val="0.85750439367311071"/>
-          <c:h val="0.73310543511649329"/>
+          <c:x val="9.4729950900163659E-2"/>
+          <c:y val="0.15762985348455835"/>
+          <c:w val="0.82540098199672662"/>
+          <c:h val="0.66706099873598568"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1314,7 +1292,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CBBB-A947-A729-1A4E677A3BBF}"/>
+              <c16:uniqueId val="{00000000-0A88-A541-8485-E165BCA41783}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1323,11 +1301,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$19</c:f>
+              <c:f>'Sheet 1'!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EBITDA</c:v>
+                  <c:v>Net Income</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1367,130 +1345,130 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$19:$AM$19</c:f>
+              <c:f>'Sheet 1'!$B$28:$AM$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>19600000</c:v>
+                  <c:v>9600000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25600000</c:v>
+                  <c:v>14300000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32800000</c:v>
+                  <c:v>18100000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>38500000</c:v>
+                  <c:v>20100000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>46900000</c:v>
+                  <c:v>24600000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>69800000</c:v>
+                  <c:v>33900000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>95400000</c:v>
+                  <c:v>47100000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>115900000</c:v>
+                  <c:v>59200000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>152400000</c:v>
+                  <c:v>76600000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>234900000</c:v>
+                  <c:v>103400000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>324000000</c:v>
+                  <c:v>140100000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>416800000</c:v>
+                  <c:v>190800000</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>549700000</c:v>
+                  <c:v>239300000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>514900000</c:v>
+                  <c:v>181900000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>173592000</c:v>
+                  <c:v>-36111000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>124669000</c:v>
+                  <c:v>-781000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>459093000</c:v>
+                  <c:v>309730000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>304493000</c:v>
+                  <c:v>200009000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>468830000</c:v>
+                  <c:v>361837000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>434087000</c:v>
+                  <c:v>223218000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>452762000</c:v>
+                  <c:v>168935000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1619600000</c:v>
+                  <c:v>761100000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1947800000</c:v>
+                  <c:v>994200000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1831500000</c:v>
+                  <c:v>850300000</c:v>
                 </c:pt>
                 <c:pt idx="25">
+                  <c:v>1035600000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1329900000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1177900000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1273300000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1894400000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1975400000</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>2021800000</c:v>
                 </c:pt>
-                <c:pt idx="26">
-                  <c:v>2475700000</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2414200000</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2575700000</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>4250800000</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>4034600000</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>4248000000</c:v>
-                </c:pt>
                 <c:pt idx="32">
-                  <c:v>5051000000</c:v>
+                  <c:v>2225000000</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6196000000</c:v>
+                  <c:v>2938000000</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>7023000000</c:v>
+                  <c:v>3696000000</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>10103000000</c:v>
+                  <c:v>6375000000</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>11962000000</c:v>
+                  <c:v>7725000000</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>11760000000</c:v>
+                  <c:v>6950000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CBBB-A947-A729-1A4E677A3BBF}"/>
+              <c16:uniqueId val="{00000001-0A88-A541-8485-E165BCA41783}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1499,11 +1477,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:f>'Sheet 1'!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1543,7 +1521,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$AM$106</c:f>
+              <c:f>'Sheet 1'!$B$107:$AM$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="38"/>
@@ -1666,7 +1644,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-CBBB-A947-A729-1A4E677A3BBF}"/>
+              <c16:uniqueId val="{00000002-0A88-A541-8485-E165BCA41783}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1680,11 +1658,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="1834940944"/>
-        <c:axId val="1834946800"/>
+        <c:axId val="930697455"/>
+        <c:axId val="930681567"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1834940944"/>
+        <c:axId val="930697455"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1724,7 +1702,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1834946800"/>
+        <c:crossAx val="930681567"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1732,7 +1710,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1834946800"/>
+        <c:axId val="930681567"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1781,7 +1759,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1834940944"/>
+        <c:crossAx val="930697455"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1799,10 +1777,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.33748014890054384"/>
-          <c:y val="0.92611876818251138"/>
-          <c:w val="0.32222764070132709"/>
-          <c:h val="4.6600751967452454E-2"/>
+          <c:x val="0.34334110854801086"/>
+          <c:y val="0.90659182261555882"/>
+          <c:w val="0.31069902186940218"/>
+          <c:h val="5.7158609096819281E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2384,20 +2362,20 @@
       <xdr:col>41</xdr:col>
       <xdr:colOff>31749</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>33338</xdr:rowOff>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>47</xdr:col>
       <xdr:colOff>15874</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>206374</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{185F7855-F04C-35B8-4975-7368129F291F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB3D05C3-7B93-E6AB-E700-B88AD8EFF965}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2416,6 +2394,58 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Treasuries"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
+      <sheetName val="Short List"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>4.0480000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2537,14 +2567,13 @@
     <v>a24bsm</v>
     <v>268435456</v>
     <v>1</v>
+    <v>2</v>
     <v>Powered by Refinitiv</v>
     <v>611.05999999999995</v>
     <v>475.77</v>
-    <v>0.79649999999999999</v>
-    <v>-3.71</v>
-    <v>-6.9540000000000001E-3</v>
-    <v>1.54</v>
-    <v>2.9070000000000003E-3</v>
+    <v>0.77129999999999999</v>
+    <v>-3.59</v>
+    <v>-6.9399999999999991E-3</v>
     <v>USD</v>
     <v>Thermo Fisher Scientific Inc. is engaged in serving science. The Company operates through four segments. Life Sciences Solutions segment provides a portfolio of reagents, instruments and consumables used in biological and medical research, discovery and production of new drugs and vaccines, as well as diagnosis of infection and disease. Analytical Instruments segment provides an offering of instruments and the supporting consumables, software and services that are used for a range of applications. Specialty Diagnostics segment offers a range of diagnostic test kits, reagents, culture media, instruments and associated products to serve customers in healthcare, clinical, pharmaceutical, industrial and food safety laboratories. Laboratory Products and Biopharma Services segment offers virtually everything needed for the laboratory. Its brands, including Thermo Scientific, Applied Biosystems, Invitrogen, Fisher Scientific, Unity Lab Services, Patheon and PPD.</v>
     <v>130000</v>
@@ -2552,25 +2581,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>168 Third Avenue, WALTHAM, MA, 02451 US</v>
-    <v>535.74</v>
+    <v>519.46</v>
     <v>Healthcare Equipment &amp; Supplies</v>
     <v>Stock</v>
-    <v>45057.963560682816</v>
+    <v>45114.958333344533</v>
     <v>0</v>
-    <v>525.05999999999995</v>
-    <v>204351287527</v>
+    <v>513.30999999999995</v>
+    <v>198156600000</v>
     <v>THERMO FISHER SCIENTIFIC INC.</v>
     <v>THERMO FISHER SCIENTIFIC INC.</v>
-    <v>532.09</v>
-    <v>34.753999999999998</v>
-    <v>533.5</v>
-    <v>529.79</v>
-    <v>531.33000000000004</v>
+    <v>515</v>
+    <v>33.466200000000001</v>
+    <v>517.32000000000005</v>
+    <v>513.73</v>
     <v>385721300</v>
     <v>TMO</v>
     <v>THERMO FISHER SCIENTIFIC INC. (XNYS:TMO)</v>
-    <v>2326346</v>
-    <v>1398705</v>
+    <v>383</v>
+    <v>1778624</v>
     <v>1960</v>
   </rv>
   <rv s="2">
@@ -2596,14 +2624,13 @@
     <k n="%EntityId" t="s"/>
     <k n="%EntityServiceId"/>
     <k n="%IsRefreshable" t="b"/>
+    <k n="%OutdatedReason" t="i"/>
     <k n="%ProviderInfo" t="s"/>
     <k n="52 week high"/>
     <k n="52 week low"/>
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2624,7 +2651,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2641,7 +2667,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="43">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2652,16 +2678,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2687,6 +2710,7 @@
       <v t="s">LearnMoreOnLink</v>
       <v t="s">ExchangeID</v>
       <v t="s">%ProviderInfo</v>
+      <v t="s">%OutdatedReason</v>
     </a>
   </spbArrays>
   <spbData count="5">
@@ -2727,19 +2751,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2784,9 +2802,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2794,9 +2809,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3158,17 +3170,18 @@
   <dimension ref="A1:AV118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AK77" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AK84" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AQ95" sqref="AQ95"/>
+      <selection pane="bottomRight" activeCell="AN95" sqref="AN95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="50" customWidth="1"/>
     <col min="2" max="39" width="15" customWidth="1"/>
-    <col min="40" max="48" width="19.83203125" customWidth="1"/>
+    <col min="40" max="47" width="21.1640625" customWidth="1"/>
+    <col min="48" max="48" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="22" thickBot="1" x14ac:dyDescent="0.3">
@@ -3289,19 +3302,19 @@
       <c r="AM1" s="8">
         <v>2022</v>
       </c>
-      <c r="AN1" s="27">
+      <c r="AN1" s="23">
         <v>2023</v>
       </c>
-      <c r="AO1" s="27">
+      <c r="AO1" s="23">
         <v>2024</v>
       </c>
-      <c r="AP1" s="27">
+      <c r="AP1" s="23">
         <v>2025</v>
       </c>
-      <c r="AQ1" s="27">
+      <c r="AQ1" s="23">
         <v>2026</v>
       </c>
-      <c r="AR1" s="27">
+      <c r="AR1" s="23">
         <v>2027</v>
       </c>
     </row>
@@ -3310,127 +3323,127 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AL2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AN2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AO2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AP2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AQ2" s="9"/>
       <c r="AR2" s="9"/>
@@ -3476,7 +3489,7 @@
         <v>2932600000</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O3" s="1">
         <v>3558300000</v>
@@ -3553,37 +3566,37 @@
       <c r="AM3" s="1">
         <v>44915000000</v>
       </c>
-      <c r="AN3" s="28">
-        <v>45309000000</v>
-      </c>
-      <c r="AO3" s="28">
-        <v>48842000000</v>
-      </c>
-      <c r="AP3" s="28">
-        <v>52752000000</v>
-      </c>
-      <c r="AQ3" s="28">
-        <v>55382000000</v>
-      </c>
-      <c r="AR3" s="28">
-        <v>63745000000</v>
+      <c r="AN3" s="24">
+        <v>45305000000</v>
+      </c>
+      <c r="AO3" s="24">
+        <v>48739000000</v>
+      </c>
+      <c r="AP3" s="24">
+        <v>52629000000</v>
+      </c>
+      <c r="AQ3" s="24">
+        <v>53955000000</v>
+      </c>
+      <c r="AR3" s="24">
+        <v>57996000000</v>
       </c>
       <c r="AS3" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="AT3" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="AT3" s="21" t="s">
+      <c r="AU3" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="AU3" s="21" t="s">
+      <c r="AV3" s="21" t="s">
         <v>111</v>
-      </c>
-      <c r="AV3" s="21" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15">
@@ -3736,23 +3749,23 @@
       </c>
       <c r="AN4" s="16">
         <f t="shared" si="0"/>
-        <v>8.7721251252366184E-3</v>
+        <v>8.6830680173661801E-3</v>
       </c>
       <c r="AO4" s="16">
         <f t="shared" si="0"/>
-        <v>7.7975678121344538E-2</v>
+        <v>7.5797373358349018E-2</v>
       </c>
       <c r="AP4" s="16">
         <f t="shared" si="0"/>
-        <v>8.005405184062897E-2</v>
+        <v>7.9812880855167245E-2</v>
       </c>
       <c r="AQ4" s="16">
         <f t="shared" si="0"/>
-        <v>4.9855929632999674E-2</v>
+        <v>2.5195234566493863E-2</v>
       </c>
       <c r="AR4" s="16">
         <f t="shared" si="0"/>
-        <v>0.15100574193781369</v>
+        <v>7.4895746455379442E-2</v>
       </c>
       <c r="AS4" s="17">
         <f>(AM4+AL4+AK4)/3</f>
@@ -3767,7 +3780,7 @@
         <v>0.27875958120818201</v>
       </c>
       <c r="AV4" s="17">
-        <f>(AM105+AL105+AK105)/3</f>
+        <f>(AM106+AL106+AK106)/3</f>
         <v>0.23270618732247714</v>
       </c>
     </row>
@@ -3812,7 +3825,7 @@
         <v>1542500000</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O5" s="1">
         <v>1837600000</v>
@@ -3931,7 +3944,7 @@
         <v>1390100000</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O6" s="10">
         <v>1720700000</v>
@@ -4009,16 +4022,16 @@
         <v>19500000000</v>
       </c>
       <c r="AS6" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="AT6" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="AT6" s="21" t="s">
+      <c r="AU6" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="AU6" s="21" t="s">
+      <c r="AV6" s="21" t="s">
         <v>115</v>
-      </c>
-      <c r="AV6" s="21" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -4062,7 +4075,7 @@
         <v>0.47399999999999998</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O7" s="2">
         <v>0.48359999999999997</v>
@@ -4152,7 +4165,7 @@
         <v>0.1547</v>
       </c>
       <c r="AV7" s="18">
-        <f>AM106/AM3</f>
+        <f>AM107/AM3</f>
         <v>0.15386841812312146</v>
       </c>
     </row>
@@ -4161,31 +4174,31 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K8" s="1">
         <v>103700000</v>
@@ -4194,10 +4207,10 @@
         <v>269600000</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O8" s="1">
         <v>337300000</v>
@@ -4277,7 +4290,7 @@
     </row>
     <row r="9" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9" s="15" t="e">
         <f>B8/B3</f>
@@ -4432,16 +4445,16 @@
         <v>3.2750751419347655E-2</v>
       </c>
       <c r="AS9" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="AT9" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="AT9" s="21" t="s">
+      <c r="AU9" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="AU9" s="21" t="s">
+      <c r="AV9" s="21" t="s">
         <v>99</v>
-      </c>
-      <c r="AV9" s="21" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -4449,118 +4462,118 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AS10" s="17">
         <f>AM9</f>
@@ -4584,118 +4597,118 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:48" ht="20" x14ac:dyDescent="0.25">
@@ -4739,7 +4752,7 @@
         <v>990700000</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O12" s="1">
         <v>840700000</v>
@@ -4817,21 +4830,21 @@
         <v>7127000000</v>
       </c>
       <c r="AS12" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="AT12" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="AT12" s="21" t="s">
+      <c r="AU12" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="AU12" s="21" t="s">
+      <c r="AV12" s="21" t="s">
         <v>119</v>
-      </c>
-      <c r="AV12" s="21" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
@@ -5043,7 +5056,7 @@
         <v>115200000</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O14" s="1">
         <v>135700000</v>
@@ -5052,73 +5065,73 @@
         <v>162300000</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -5162,7 +5175,7 @@
         <v>1105900000</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O15" s="1">
         <v>1313700000</v>
@@ -5240,16 +5253,16 @@
         <v>8598000000</v>
       </c>
       <c r="AS15" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="AT15" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="AT15" s="21" t="s">
+      <c r="AU15" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="AU15" s="21" t="s">
+      <c r="AV15" s="21" t="s">
         <v>123</v>
-      </c>
-      <c r="AV15" s="21" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -5293,7 +5306,7 @@
         <v>2648400000</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O16" s="1">
         <v>3151300000</v>
@@ -5370,98 +5383,98 @@
       <c r="AM16" s="1">
         <v>34013000000</v>
       </c>
-      <c r="AS16" s="29">
+      <c r="AS16" s="25">
         <f>(AM35+AL35+AK35+AJ35+AI35)/5</f>
         <v>-1.9566849505923446E-3</v>
       </c>
-      <c r="AT16" s="30">
+      <c r="AT16" s="35">
         <f>AU101/AM3</f>
-        <v>4.5497336641879107</v>
-      </c>
-      <c r="AU16" s="30">
+        <v>4.4118134253590116</v>
+      </c>
+      <c r="AU16" s="35">
         <f>AU101/AM28</f>
-        <v>29.403062953525179</v>
-      </c>
-      <c r="AV16" s="31">
-        <f>AU101/AM106</f>
-        <v>29.568989658081321</v>
+        <v>28.511741007194246</v>
+      </c>
+      <c r="AV16" s="36">
+        <f>AU101/AM107</f>
+        <v>28.672637823759224</v>
       </c>
     </row>
-    <row r="17" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z17" s="1">
         <v>118100000</v>
@@ -5506,7 +5519,7 @@
         <v>726000000</v>
       </c>
     </row>
-    <row r="18" spans="1:45" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:48" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -5547,7 +5560,7 @@
         <v>115200000</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O18" s="1">
         <v>135700000</v>
@@ -5625,10 +5638,19 @@
         <v>3381000000</v>
       </c>
       <c r="AS18" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
+      </c>
+      <c r="AT18" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="AU18" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="AV18" s="21" t="s">
+        <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -5669,7 +5691,7 @@
         <v>416800000</v>
       </c>
       <c r="N19" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O19" s="10">
         <v>549700000</v>
@@ -5746,14 +5768,41 @@
       <c r="AM19" s="10">
         <v>11760000000</v>
       </c>
-      <c r="AS19" s="32">
+      <c r="AN19" s="30">
+        <v>11842000000</v>
+      </c>
+      <c r="AO19" s="30">
+        <v>13027000000</v>
+      </c>
+      <c r="AP19" s="30">
+        <v>14364000000</v>
+      </c>
+      <c r="AQ19" s="30">
+        <v>15802000000</v>
+      </c>
+      <c r="AR19" s="30">
+        <v>17565000000</v>
+      </c>
+      <c r="AS19" s="26">
         <f>AM40-AM56-AM61</f>
         <v>-25964000000</v>
       </c>
+      <c r="AT19" s="35">
+        <f>AU101/AN3</f>
+        <v>4.3738351175366956</v>
+      </c>
+      <c r="AU19" s="35">
+        <f>AU101/AN28</f>
+        <v>21.531739650114094</v>
+      </c>
+      <c r="AV19" s="36">
+        <f>AU101/AN105</f>
+        <v>21.920146860588577</v>
+      </c>
     </row>
-    <row r="20" spans="1:45" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -5769,7 +5818,7 @@
         <v>0.17378048780487809</v>
       </c>
       <c r="F20" s="15">
-        <f t="shared" ref="F20:AM20" si="3">(F19/E19)-1</f>
+        <f t="shared" ref="F20:AR20" si="3">(F19/E19)-1</f>
         <v>0.21818181818181825</v>
       </c>
       <c r="G20" s="15">
@@ -5904,8 +5953,28 @@
         <f t="shared" si="3"/>
         <v>-1.6886808226049155E-2</v>
       </c>
+      <c r="AN20" s="16">
+        <f t="shared" si="3"/>
+        <v>6.9727891156463606E-3</v>
+      </c>
+      <c r="AO20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.10006755615605467</v>
+      </c>
+      <c r="AP20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.10263299301450823</v>
+      </c>
+      <c r="AQ20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.10011138958507382</v>
+      </c>
+      <c r="AR20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.1115681559296291</v>
+      </c>
     </row>
-    <row r="21" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:48" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -5946,7 +6015,7 @@
         <v>0.1421</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O21" s="2">
         <v>0.1545</v>
@@ -6023,8 +6092,34 @@
       <c r="AM21" s="2">
         <v>0.26179999999999998</v>
       </c>
+      <c r="AN21" s="31">
+        <f>AN19/AN3</f>
+        <v>0.2613839532060479</v>
+      </c>
+      <c r="AO21" s="31">
+        <f t="shared" ref="AO21:AR21" si="4">AO19/AO3</f>
+        <v>0.26728082233939965</v>
+      </c>
+      <c r="AP21" s="31">
+        <f t="shared" si="4"/>
+        <v>0.27292937353930341</v>
+      </c>
+      <c r="AQ21" s="31">
+        <f t="shared" si="4"/>
+        <v>0.29287369103882865</v>
+      </c>
+      <c r="AR21" s="31">
+        <f t="shared" si="4"/>
+        <v>0.30286571487688807</v>
+      </c>
+      <c r="AU21" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="AV21" s="21" t="s">
+        <v>162</v>
+      </c>
     </row>
-    <row r="22" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -6065,7 +6160,7 @@
         <v>284200000</v>
       </c>
       <c r="N22" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O22" s="10">
         <v>407000000</v>
@@ -6142,8 +6237,16 @@
       <c r="AM22" s="10">
         <v>8393000000</v>
       </c>
+      <c r="AU22" s="37">
+        <f>(-1*AM98)/AU101</f>
+        <v>2.2961637412026652E-3</v>
+      </c>
+      <c r="AV22" s="38">
+        <f>AM107/AU101</f>
+        <v>3.4876456297695861E-2</v>
+      </c>
     </row>
-    <row r="23" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -6184,7 +6287,7 @@
         <v>9.69E-2</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O23" s="2">
         <v>0.1144</v>
@@ -6262,7 +6365,7 @@
         <v>0.18690000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -6303,7 +6406,7 @@
         <v>17400000</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O24" s="1">
         <v>7000000</v>
@@ -6381,7 +6484,7 @@
         <v>-558000000</v>
       </c>
     </row>
-    <row r="25" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -6422,7 +6525,7 @@
         <v>301600000</v>
       </c>
       <c r="N25" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O25" s="10">
         <v>414000000</v>
@@ -6500,7 +6603,7 @@
         <v>7835000000</v>
       </c>
     </row>
-    <row r="26" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -6541,7 +6644,7 @@
         <v>0.1028</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O26" s="2">
         <v>0.1163</v>
@@ -6619,7 +6722,7 @@
         <v>0.1744</v>
       </c>
     </row>
-    <row r="27" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -6660,7 +6763,7 @@
         <v>110800000</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O27" s="1">
         <v>174700000</v>
@@ -6738,7 +6841,7 @@
         <v>703000000</v>
       </c>
     </row>
-    <row r="28" spans="1:45" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:48" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -6779,7 +6882,7 @@
         <v>190800000</v>
       </c>
       <c r="N28" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O28" s="11">
         <v>239300000</v>
@@ -6856,10 +6959,25 @@
       <c r="AM28" s="11">
         <v>6950000000</v>
       </c>
+      <c r="AN28" s="32">
+        <v>9203000000</v>
+      </c>
+      <c r="AO28" s="32">
+        <v>10232000000</v>
+      </c>
+      <c r="AP28" s="32">
+        <v>11314000000</v>
+      </c>
+      <c r="AQ28" s="32">
+        <v>12664000000</v>
+      </c>
+      <c r="AR28" s="32">
+        <v>14455000000</v>
+      </c>
     </row>
-    <row r="29" spans="1:45" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:48" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -6875,143 +6993,163 @@
         <v>0.11049723756906071</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:AM29" si="4">(F28/E28)-1</f>
+        <f t="shared" ref="F29:AR29" si="5">(F28/E28)-1</f>
         <v>0.22388059701492535</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.37804878048780477</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.38938053097345127</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.256900212314225</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.29391891891891886</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.34986945169712791</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.35493230174081236</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.36188436830835125</v>
       </c>
       <c r="N29" s="15" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="O29" s="15" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="P29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.23986627664020055</v>
       </c>
       <c r="Q29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1.1985211654755359</v>
       </c>
       <c r="R29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.97837224114535737</v>
       </c>
       <c r="S29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-397.58130601792573</v>
       </c>
       <c r="T29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.35424724760275084</v>
       </c>
       <c r="U29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.80910359033843471</v>
       </c>
       <c r="V29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.38309791425420836</v>
       </c>
       <c r="W29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.24318379342167751</v>
       </c>
       <c r="X29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.5052830970491611</v>
       </c>
       <c r="Y29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.30626724477729605</v>
       </c>
       <c r="Z29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.14473948903641121</v>
       </c>
       <c r="AA29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.2179230859696577</v>
       </c>
       <c r="AB29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.28418308227114708</v>
       </c>
       <c r="AC29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.1142943078426949</v>
       </c>
       <c r="AD29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.0991595211817646E-2</v>
       </c>
       <c r="AE29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.48778763841985384</v>
       </c>
       <c r="AF29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.2757601351351315E-2</v>
       </c>
       <c r="AG29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.3488913637744302E-2</v>
       </c>
       <c r="AH29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.10050450093975671</v>
       </c>
       <c r="AI29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.32044943820224714</v>
       </c>
       <c r="AJ29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.25799863852961202</v>
       </c>
       <c r="AK29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.72483766233766245</v>
       </c>
       <c r="AL29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.21176470588235285</v>
       </c>
       <c r="AM29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.10032362459546929</v>
       </c>
+      <c r="AN29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.32417266187050364</v>
+      </c>
+      <c r="AO29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.11181136585895901</v>
+      </c>
+      <c r="AP29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.10574667709147767</v>
+      </c>
+      <c r="AQ29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.11932119497967131</v>
+      </c>
+      <c r="AR29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.141424510423247</v>
+      </c>
     </row>
-    <row r="30" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -7052,7 +7190,7 @@
         <v>6.5100000000000005E-2</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O30" s="2">
         <v>6.7299999999999999E-2</v>
@@ -7129,8 +7267,28 @@
       <c r="AM30" s="2">
         <v>0.1547</v>
       </c>
+      <c r="AN30" s="33">
+        <f>AN28/AN3</f>
+        <v>0.20313431188610528</v>
+      </c>
+      <c r="AO30" s="33">
+        <f t="shared" ref="AO30:AR30" si="6">AO28/AO3</f>
+        <v>0.20993454933420874</v>
+      </c>
+      <c r="AP30" s="33">
+        <f t="shared" si="6"/>
+        <v>0.21497653385015866</v>
+      </c>
+      <c r="AQ30" s="33">
+        <f t="shared" si="6"/>
+        <v>0.23471411361319619</v>
+      </c>
+      <c r="AR30" s="33">
+        <f t="shared" si="6"/>
+        <v>0.24924132698806814</v>
+      </c>
     </row>
-    <row r="31" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -7171,7 +7329,7 @@
         <v>1.35</v>
       </c>
       <c r="N31" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O31" s="12">
         <v>1.57</v>
@@ -7183,7 +7341,7 @@
         <v>-0.22</v>
       </c>
       <c r="R31" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S31" s="12">
         <v>1.84</v>
@@ -7248,8 +7406,23 @@
       <c r="AM31" s="12">
         <v>17.73</v>
       </c>
+      <c r="AN31" s="34">
+        <v>23.86</v>
+      </c>
+      <c r="AO31" s="34">
+        <v>26.53</v>
+      </c>
+      <c r="AP31" s="34">
+        <v>29.33</v>
+      </c>
+      <c r="AQ31" s="34">
+        <v>32.83</v>
+      </c>
+      <c r="AR31" s="34">
+        <v>37.47</v>
+      </c>
     </row>
-    <row r="32" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -7290,7 +7463,7 @@
         <v>1.22</v>
       </c>
       <c r="N32" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O32" s="12">
         <v>1.41</v>
@@ -7302,7 +7475,7 @@
         <v>-0.22</v>
       </c>
       <c r="R32" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S32" s="12">
         <v>1.73</v>
@@ -7409,7 +7582,7 @@
         <v>141525000</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O33" s="1">
         <v>152489000</v>
@@ -7528,7 +7701,7 @@
         <v>175700000</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O34" s="1">
         <v>176082000</v>
@@ -7608,7 +7781,7 @@
     </row>
     <row r="35" spans="1:39" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="22">
@@ -7616,147 +7789,147 @@
         <v>0.20362287658039793</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:AM35" si="5">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:AM35" si="7">(D34-C34)/C34</f>
         <v>-1.4113521059620689E-2</v>
       </c>
       <c r="E35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.3970194615690134E-2</v>
       </c>
       <c r="F35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.9936646343540314E-2</v>
       </c>
       <c r="G35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.15624846470039139</v>
       </c>
       <c r="H35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.23300379581893377</v>
       </c>
       <c r="I35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.5729711102176787E-2</v>
       </c>
       <c r="J35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.1831692956632541</v>
       </c>
       <c r="K35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.35111548495511136</v>
       </c>
       <c r="L35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>8.6394557823129256E-2</v>
       </c>
       <c r="M35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.11130086083123028</v>
       </c>
       <c r="N35" s="22" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="O35" s="22" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="P35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.3442600606535592E-2</v>
       </c>
       <c r="Q35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-4.4438467012984102E-2</v>
       </c>
       <c r="R35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7.8566024900450976E-2</v>
       </c>
       <c r="S35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.4653428739207029E-2</v>
       </c>
       <c r="T35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-8.510216439545365E-2</v>
       </c>
       <c r="U35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.8092895214666432E-2</v>
       </c>
       <c r="V35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.3761549978823796E-2</v>
       </c>
       <c r="W35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.23188212950754231</v>
       </c>
       <c r="X35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.1785026906005736</v>
       </c>
       <c r="Y35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-2.0058598151904441E-2</v>
       </c>
       <c r="Z35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-2.7058817847286108E-2</v>
       </c>
       <c r="AA35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-3.2230977598047682E-2</v>
       </c>
       <c r="AB35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-6.0087933561309231E-2</v>
       </c>
       <c r="AC35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-4.72972972972973E-2</v>
       </c>
       <c r="AD35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-2.1822149481723948E-3</v>
       </c>
       <c r="AE35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>9.9781301257517774E-2</v>
       </c>
       <c r="AF35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-9.9428287347750428E-4</v>
       </c>
       <c r="AG35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.1196815128141328E-2</v>
       </c>
       <c r="AH35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.5098137896326119E-3</v>
       </c>
       <c r="AI35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.0100502512562814E-2</v>
       </c>
       <c r="AJ35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-7.3891625615763543E-3</v>
       </c>
       <c r="AK35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-9.9255583126550868E-3</v>
       </c>
       <c r="AL35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-5.0125313283208017E-3</v>
       </c>
       <c r="AM35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-7.556675062972292E-3</v>
       </c>
     </row>
@@ -7765,118 +7938,118 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AB36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AE36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AK36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AL36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AM36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:39" ht="21" x14ac:dyDescent="0.25">
@@ -7884,118 +8057,118 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AL37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -8003,31 +8176,31 @@
         <v>30</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K38" s="1">
         <v>382800000</v>
@@ -8039,7 +8212,7 @@
         <v>414000000</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O38" s="1">
         <v>594000000</v>
@@ -8122,34 +8295,34 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L39" s="1">
         <v>594000000</v>
@@ -8158,7 +8331,7 @@
         <v>1432000000</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O39" s="1">
         <v>929000000</v>
@@ -8212,28 +8385,28 @@
         <v>8500000</v>
       </c>
       <c r="AF39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -8241,31 +8414,31 @@
         <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K40" s="1">
         <v>382800000</v>
@@ -8277,7 +8450,7 @@
         <v>1846000000</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O40" s="1">
         <v>1523000000</v>
@@ -8360,31 +8533,31 @@
         <v>33</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K41" s="1">
         <v>374800000</v>
@@ -8396,7 +8569,7 @@
         <v>694000000</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O41" s="1">
         <v>867000000</v>
@@ -8479,31 +8652,31 @@
         <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K42" s="1">
         <v>233400000</v>
@@ -8515,7 +8688,7 @@
         <v>433000000</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O42" s="1">
         <v>544000000</v>
@@ -8598,31 +8771,31 @@
         <v>35</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K43" s="1">
         <v>691700000</v>
@@ -8634,7 +8807,7 @@
         <v>159000000</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O43" s="1">
         <v>160000000</v>
@@ -8717,31 +8890,31 @@
         <v>36</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K44" s="10">
         <v>1682700000</v>
@@ -8753,7 +8926,7 @@
         <v>3132000000</v>
       </c>
       <c r="N44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O44" s="10">
         <v>3094000000</v>
@@ -8836,31 +9009,31 @@
         <v>37</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K45" s="1">
         <v>614000000</v>
@@ -8872,7 +9045,7 @@
         <v>704000000</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O45" s="1">
         <v>789000000</v>
@@ -8955,34 +9128,34 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L46" s="1">
         <v>827000000</v>
@@ -8991,7 +9164,7 @@
         <v>1083000000</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O46" s="1">
         <v>1692000000</v>
@@ -9006,16 +9179,16 @@
         <v>1348000000</v>
       </c>
       <c r="S46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W46" s="1">
         <v>8524989000</v>
@@ -9074,55 +9247,55 @@
         <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K47" s="1">
         <v>575500000</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S47" s="1">
         <v>1416205000</v>
@@ -9193,31 +9366,31 @@
         <v>40</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K48" s="1">
         <v>575500000</v>
@@ -9229,7 +9402,7 @@
         <v>1083000000</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O48" s="1">
         <v>1692000000</v>
@@ -9312,34 +9485,34 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L49" s="1">
         <v>86000000</v>
@@ -9348,7 +9521,7 @@
         <v>94000000</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O49" s="1">
         <v>63000000</v>
@@ -9363,67 +9536,67 @@
         <v>9000000</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -9431,43 +9604,43 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L50" s="1">
         <v>59000000</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O50" s="1">
         <v>91000000</v>
@@ -9482,67 +9655,67 @@
         <v>8000000</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -9550,31 +9723,31 @@
         <v>43</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K51" s="1">
         <v>147700000</v>
@@ -9586,7 +9759,7 @@
         <v>128000000</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O51" s="1">
         <v>67000000</v>
@@ -9669,31 +9842,31 @@
         <v>44</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K52" s="1">
         <v>1337200000</v>
@@ -9705,7 +9878,7 @@
         <v>2009000000</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O52" s="1">
         <v>2702000000</v>
@@ -9788,118 +9961,118 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:39" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -9907,31 +10080,31 @@
         <v>46</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K54" s="11">
         <v>3019900000</v>
@@ -9943,7 +10116,7 @@
         <v>5141000000</v>
       </c>
       <c r="N54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O54" s="11">
         <v>5796000000</v>
@@ -10026,31 +10199,31 @@
         <v>47</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K55" s="1">
         <v>112200000</v>
@@ -10062,7 +10235,7 @@
         <v>204000000</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O55" s="1">
         <v>252000000</v>
@@ -10145,31 +10318,31 @@
         <v>48</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K56" s="1">
         <v>83000000</v>
@@ -10178,16 +10351,16 @@
         <v>106000000</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q56" s="1">
         <v>81000000</v>
@@ -10264,76 +10437,76 @@
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z57" s="1">
         <v>28400000</v>
@@ -10342,13 +10515,13 @@
         <v>59200000</v>
       </c>
       <c r="AB57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE57" s="1">
         <v>165100000</v>
@@ -10360,22 +10533,22 @@
         <v>165400000</v>
       </c>
       <c r="AH57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -10383,55 +10556,55 @@
         <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S58" s="1">
         <v>51259000</v>
@@ -10494,7 +10667,7 @@
         <v>2655000000</v>
       </c>
       <c r="AM58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -10502,31 +10675,31 @@
         <v>51</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K59" s="1">
         <v>341300000</v>
@@ -10538,7 +10711,7 @@
         <v>709000000</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O59" s="1">
         <v>840000000</v>
@@ -10621,31 +10794,31 @@
         <v>52</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K60" s="10">
         <v>536500000</v>
@@ -10657,7 +10830,7 @@
         <v>913000000</v>
       </c>
       <c r="N60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O60" s="10">
         <v>1092000000</v>
@@ -10740,31 +10913,31 @@
         <v>53</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K61" s="1">
         <v>1049800000</v>
@@ -10776,7 +10949,7 @@
         <v>1550000000</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O61" s="1">
         <v>1743000000</v>
@@ -10859,118 +11032,118 @@
         <v>50</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -10978,55 +11151,55 @@
         <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K63" s="1">
         <v>57900000</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S63" s="1">
         <v>10144000</v>
@@ -11097,31 +11270,31 @@
         <v>55</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K64" s="1">
         <v>57700000</v>
@@ -11133,7 +11306,7 @@
         <v>924000000</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O64" s="1">
         <v>963000000</v>
@@ -11216,31 +11389,31 @@
         <v>56</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K65" s="1">
         <v>1165400000</v>
@@ -11252,7 +11425,7 @@
         <v>2474000000</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O65" s="1">
         <v>2706000000</v>
@@ -11335,118 +11508,118 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -11454,31 +11627,31 @@
         <v>58</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K67" s="10">
         <v>1701900000</v>
@@ -11490,7 +11663,7 @@
         <v>3387000000</v>
       </c>
       <c r="N67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O67" s="10">
         <v>3798000000</v>
@@ -11573,34 +11746,34 @@
         <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L68" s="1">
         <v>88000000</v>
@@ -11609,7 +11782,7 @@
         <v>150000000</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O68" s="1">
         <v>159000000</v>
@@ -11692,31 +11865,31 @@
         <v>60</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K69" s="1">
         <v>465500000</v>
@@ -11728,7 +11901,7 @@
         <v>795000000</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O69" s="1">
         <v>1035000000</v>
@@ -11811,31 +11984,31 @@
         <v>61</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K70" s="1">
         <v>-179200000</v>
@@ -11847,7 +12020,7 @@
         <v>16000000</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O70" s="1">
         <v>-72000000</v>
@@ -11930,31 +12103,31 @@
         <v>62</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K71" s="1">
         <v>704000000</v>
@@ -11966,7 +12139,7 @@
         <v>793000000</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O71" s="1">
         <v>876000000</v>
@@ -12049,31 +12222,31 @@
         <v>63</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K72" s="10">
         <v>990300000</v>
@@ -12085,7 +12258,7 @@
         <v>1754000000</v>
       </c>
       <c r="N72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O72" s="10">
         <v>1998000000</v>
@@ -12168,31 +12341,31 @@
         <v>64</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K73" s="11">
         <v>2692200000</v>
@@ -12204,7 +12377,7 @@
         <v>5141000000</v>
       </c>
       <c r="N73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O73" s="11">
         <v>5796000000</v>
@@ -12287,118 +12460,118 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AB74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AE74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AK74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AL74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AM74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:39" ht="21" x14ac:dyDescent="0.25">
@@ -12406,118 +12579,118 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AL75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -12525,16 +12698,16 @@
         <v>66</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F76" s="1">
         <v>24600000</v>
@@ -12561,7 +12734,7 @@
         <v>190800000</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O76" s="1">
         <v>239300000</v>
@@ -12644,16 +12817,16 @@
         <v>13</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F77" s="1">
         <v>12700000</v>
@@ -12680,7 +12853,7 @@
         <v>115200000</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O77" s="1">
         <v>135700000</v>
@@ -12763,16 +12936,16 @@
         <v>67</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F78" s="1">
         <v>-2100000</v>
@@ -12799,7 +12972,7 @@
         <v>20900000</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O78" s="1">
         <v>1100000</v>
@@ -12882,76 +13055,76 @@
         <v>68</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z79" s="1">
         <v>68100000</v>
@@ -12998,158 +13171,158 @@
     </row>
     <row r="80" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="15" t="e">
-        <f t="shared" ref="B80:AM80" si="6">B79/B3</f>
+        <f t="shared" ref="B80:AM80" si="8">B79/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="D80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="E80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="F80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="G80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="H80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="I80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="J80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="K80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="L80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="M80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="N80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="O80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="P80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="R80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="S80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="T80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="U80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="V80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="W80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="X80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="Y80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.7361049289296421E-3</v>
       </c>
       <c r="AA80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7.7025035453761803E-3</v>
       </c>
       <c r="AB80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.8395602896152959E-3</v>
       </c>
       <c r="AC80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.2510491690581059E-3</v>
       </c>
       <c r="AD80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.9440730922897109E-3</v>
       </c>
       <c r="AE80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.933260704812429E-3</v>
       </c>
       <c r="AF80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7.3679370955002533E-3</v>
       </c>
       <c r="AG80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7.3054213340191859E-3</v>
       </c>
       <c r="AH80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7.6011090926474808E-3</v>
       </c>
       <c r="AI80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7.4308235487314227E-3</v>
       </c>
       <c r="AJ80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7.0863675514838305E-3</v>
       </c>
       <c r="AK80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.0835557762741327E-3</v>
       </c>
       <c r="AL80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.8657009512636761E-3</v>
       </c>
       <c r="AM80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.8351330290548811E-3</v>
       </c>
     </row>
@@ -13158,16 +13331,16 @@
         <v>69</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F81" s="1">
         <v>19800000</v>
@@ -13194,7 +13367,7 @@
         <v>-98300000</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O81" s="1">
         <v>-115900000</v>
@@ -13277,76 +13450,76 @@
         <v>70</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z82" s="1">
         <v>127300000</v>
@@ -13396,16 +13569,16 @@
         <v>34</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F83" s="1">
         <v>-5100000</v>
@@ -13432,7 +13605,7 @@
         <v>-1300000</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O83" s="1">
         <v>9200000</v>
@@ -13509,86 +13682,86 @@
       <c r="AM83" s="1">
         <v>-825000000</v>
       </c>
-      <c r="AT83" s="62" t="s">
-        <v>126</v>
-      </c>
-      <c r="AU83" s="63"/>
+      <c r="AT83" s="66" t="s">
+        <v>125</v>
+      </c>
+      <c r="AU83" s="67"/>
     </row>
     <row r="84" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z84" s="1">
         <v>-44900000</v>
@@ -13632,80 +13805,80 @@
       <c r="AM84" s="1">
         <v>648000000</v>
       </c>
-      <c r="AT84" s="64" t="s">
-        <v>127</v>
-      </c>
-      <c r="AU84" s="65"/>
+      <c r="AT84" s="68" t="s">
+        <v>126</v>
+      </c>
+      <c r="AU84" s="68"/>
     </row>
     <row r="85" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X85" s="1">
         <v>-54200000</v>
@@ -13744,7 +13917,7 @@
         <v>-93000000</v>
       </c>
       <c r="AJ85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK85" s="1">
         <v>1452000000</v>
@@ -13753,12 +13926,12 @@
         <v>-724000000</v>
       </c>
       <c r="AM85" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT85" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="AU85" s="24">
+        <v>91</v>
+      </c>
+      <c r="AT85" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="AU85" s="40">
         <f>AM17</f>
         <v>726000000</v>
       </c>
@@ -13768,16 +13941,16 @@
         <v>72</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F86" s="1">
         <v>-7400000</v>
@@ -13804,7 +13977,7 @@
         <v>-4100000</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O86" s="1">
         <v>8800000</v>
@@ -13881,10 +14054,10 @@
       <c r="AM86" s="1">
         <v>-307000000</v>
       </c>
-      <c r="AT86" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="AU86" s="24">
+      <c r="AT86" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="AU86" s="40">
         <f>AM56</f>
         <v>5579000000</v>
       </c>
@@ -13894,16 +14067,16 @@
         <v>73</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F87" s="10">
         <v>47600000</v>
@@ -13930,7 +14103,7 @@
         <v>224500000</v>
       </c>
       <c r="N87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O87" s="10">
         <v>269000000</v>
@@ -14007,10 +14180,10 @@
       <c r="AM87" s="10">
         <v>9154000000</v>
       </c>
-      <c r="AT87" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="AU87" s="24">
+      <c r="AT87" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="AU87" s="40">
         <f>AM61</f>
         <v>28909000000</v>
       </c>
@@ -14020,16 +14193,16 @@
         <v>74</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F88" s="1">
         <v>-47900000</v>
@@ -14056,7 +14229,7 @@
         <v>-124500000</v>
       </c>
       <c r="N88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O88" s="1">
         <v>-960700000</v>
@@ -14133,174 +14306,174 @@
       <c r="AM88" s="1">
         <v>-2243000000</v>
       </c>
-      <c r="AT88" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="AU88" s="34">
+      <c r="AT88" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="AU88" s="42">
         <f>AU85/(AU86+AU87)</f>
         <v>2.1050800278357689E-2</v>
       </c>
     </row>
     <row r="89" spans="1:47" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B89" s="15" t="e">
+        <f t="shared" ref="B89:AM89" si="9">(-1*B88)/B3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C89" s="15" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D89" s="15" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E89" s="15" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F89" s="15">
+        <f t="shared" si="9"/>
+        <v>8.2728842832469771E-2</v>
+      </c>
+      <c r="G89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.16949152542372881</v>
+      </c>
+      <c r="H89" s="15">
+        <f t="shared" si="9"/>
+        <v>4.1589075108628179E-2</v>
+      </c>
+      <c r="I89" s="15">
+        <f t="shared" si="9"/>
+        <v>6.3224446786090627E-2</v>
+      </c>
+      <c r="J89" s="15">
+        <f t="shared" si="9"/>
+        <v>4.5290869808754103E-2</v>
+      </c>
+      <c r="K89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.7973885069072101E-2</v>
+      </c>
+      <c r="L89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.8495062063966656E-2</v>
+      </c>
+      <c r="M89" s="15">
+        <f t="shared" si="9"/>
+        <v>4.2453795266998565E-2</v>
+      </c>
+      <c r="N89" s="15" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.26998847764381867</v>
+      </c>
+      <c r="P89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.10373358154928121</v>
+      </c>
+      <c r="Q89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.2465812651664837E-2</v>
+      </c>
+      <c r="R89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.875267913043081E-2</v>
+      </c>
+      <c r="S89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.4546158252071196E-2</v>
+      </c>
+      <c r="T89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.199953746420712E-2</v>
+      </c>
+      <c r="U89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.2658709561898371E-2</v>
+      </c>
+      <c r="V89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.6537999800229925E-2</v>
+      </c>
+      <c r="W89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.0254419156787197E-2</v>
+      </c>
+      <c r="X89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.8006648608717066E-2</v>
+      </c>
+      <c r="Y89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.5185749666603162E-2</v>
+      </c>
+      <c r="Z89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.0524842478016163E-2</v>
+      </c>
+      <c r="AA89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.4609081724396822E-2</v>
+      </c>
+      <c r="AB89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.272746654840993E-2</v>
+      </c>
+      <c r="AC89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.5188051063557662E-2</v>
+      </c>
+      <c r="AD89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.1573225976486407E-2</v>
+      </c>
+      <c r="AE89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.5317355058734368E-2</v>
+      </c>
+      <c r="AF89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.4927204781496456E-2</v>
+      </c>
+      <c r="AG89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.4318571092420419E-2</v>
+      </c>
+      <c r="AH89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.4285304522420881E-2</v>
+      </c>
+      <c r="AI89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.1119139502422202E-2</v>
+      </c>
+      <c r="AJ89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.6254012998199046E-2</v>
+      </c>
+      <c r="AK89" s="15">
+        <f t="shared" si="9"/>
+        <v>4.5750822521571789E-2</v>
+      </c>
+      <c r="AL89" s="15">
+        <f t="shared" si="9"/>
+        <v>6.4344189130601109E-2</v>
+      </c>
+      <c r="AM89" s="15">
+        <f t="shared" si="9"/>
+        <v>4.9938773238339083E-2</v>
+      </c>
+      <c r="AT89" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="B89" s="15" t="e">
-        <f t="shared" ref="B89:AM89" si="7">(-1*B88)/B3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C89" s="15" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D89" s="15" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E89" s="15" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F89" s="15">
-        <f t="shared" si="7"/>
-        <v>8.2728842832469771E-2</v>
-      </c>
-      <c r="G89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.16949152542372881</v>
-      </c>
-      <c r="H89" s="15">
-        <f t="shared" si="7"/>
-        <v>4.1589075108628179E-2</v>
-      </c>
-      <c r="I89" s="15">
-        <f t="shared" si="7"/>
-        <v>6.3224446786090627E-2</v>
-      </c>
-      <c r="J89" s="15">
-        <f t="shared" si="7"/>
-        <v>4.5290869808754103E-2</v>
-      </c>
-      <c r="K89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.7973885069072101E-2</v>
-      </c>
-      <c r="L89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.8495062063966656E-2</v>
-      </c>
-      <c r="M89" s="15">
-        <f t="shared" si="7"/>
-        <v>4.2453795266998565E-2</v>
-      </c>
-      <c r="N89" s="15" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.26998847764381867</v>
-      </c>
-      <c r="P89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.10373358154928121</v>
-      </c>
-      <c r="Q89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.2465812651664837E-2</v>
-      </c>
-      <c r="R89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.875267913043081E-2</v>
-      </c>
-      <c r="S89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.4546158252071196E-2</v>
-      </c>
-      <c r="T89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.199953746420712E-2</v>
-      </c>
-      <c r="U89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.2658709561898371E-2</v>
-      </c>
-      <c r="V89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.6537999800229925E-2</v>
-      </c>
-      <c r="W89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.0254419156787197E-2</v>
-      </c>
-      <c r="X89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.8006648608717066E-2</v>
-      </c>
-      <c r="Y89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.5185749666603162E-2</v>
-      </c>
-      <c r="Z89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.0524842478016163E-2</v>
-      </c>
-      <c r="AA89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.4609081724396822E-2</v>
-      </c>
-      <c r="AB89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.272746654840993E-2</v>
-      </c>
-      <c r="AC89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.5188051063557662E-2</v>
-      </c>
-      <c r="AD89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.1573225976486407E-2</v>
-      </c>
-      <c r="AE89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.5317355058734368E-2</v>
-      </c>
-      <c r="AF89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.4927204781496456E-2</v>
-      </c>
-      <c r="AG89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.4318571092420419E-2</v>
-      </c>
-      <c r="AH89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.4285304522420881E-2</v>
-      </c>
-      <c r="AI89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.1119139502422202E-2</v>
-      </c>
-      <c r="AJ89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.6254012998199046E-2</v>
-      </c>
-      <c r="AK89" s="15">
-        <f t="shared" si="7"/>
-        <v>4.5750822521571789E-2</v>
-      </c>
-      <c r="AL89" s="15">
-        <f t="shared" si="7"/>
-        <v>6.4344189130601109E-2</v>
-      </c>
-      <c r="AM89" s="15">
-        <f t="shared" si="7"/>
-        <v>4.9938773238339083E-2</v>
-      </c>
-      <c r="AT89" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="AU89" s="24">
+      <c r="AU89" s="40">
         <f>AM27</f>
         <v>703000000</v>
       </c>
@@ -14310,49 +14483,49 @@
         <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q90" s="1">
         <v>-15808000</v>
@@ -14423,10 +14596,10 @@
       <c r="AM90" s="1">
         <v>-39000000</v>
       </c>
-      <c r="AT90" s="23" t="s">
+      <c r="AT90" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="AU90" s="24">
+      <c r="AU90" s="40">
         <f>AM25</f>
         <v>7835000000</v>
       </c>
@@ -14436,16 +14609,16 @@
         <v>76</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F91" s="1">
         <v>-55600000</v>
@@ -14457,7 +14630,7 @@
         <v>-248400000</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J91" s="1">
         <v>-214500000</v>
@@ -14472,7 +14645,7 @@
         <v>-831000000</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O91" s="1">
         <v>-973700000</v>
@@ -14508,51 +14681,51 @@
         <v>-100000</v>
       </c>
       <c r="Z91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM91" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT91" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="AU91" s="34">
+        <v>91</v>
+      </c>
+      <c r="AT91" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU91" s="42">
         <f>AU89/AU90</f>
         <v>8.9725590299936181E-2</v>
       </c>
@@ -14562,16 +14735,16 @@
         <v>77</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F92" s="1">
         <v>11600000</v>
@@ -14595,10 +14768,10 @@
         <v>617100000</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O92" s="1">
         <v>1543000000</v>
@@ -14637,7 +14810,7 @@
         <v>800000</v>
       </c>
       <c r="AA92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB92" s="1">
         <v>47100000</v>
@@ -14661,24 +14834,24 @@
         <v>22000000</v>
       </c>
       <c r="AI92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM92" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT92" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="AU92" s="36">
+        <v>91</v>
+      </c>
+      <c r="AT92" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="AU92" s="42">
         <f>AU88*(1-AU91)</f>
         <v>1.9162004797095983E-2</v>
       </c>
@@ -14688,16 +14861,16 @@
         <v>78</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F93" s="1">
         <v>-4700000</v>
@@ -14724,7 +14897,7 @@
         <v>-355800000</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O93" s="1">
         <v>71600000</v>
@@ -14801,26 +14974,26 @@
       <c r="AM93" s="1">
         <v>123000000</v>
       </c>
-      <c r="AT93" s="64" t="s">
-        <v>134</v>
-      </c>
-      <c r="AU93" s="65"/>
+      <c r="AT93" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="AU93" s="68"/>
     </row>
     <row r="94" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>79</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F94" s="10">
         <v>-96600000</v>
@@ -14847,7 +15020,7 @@
         <v>-1311300000</v>
       </c>
       <c r="N94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O94" s="10">
         <v>-319800000</v>
@@ -14924,11 +15097,12 @@
       <c r="AM94" s="10">
         <v>-2159000000</v>
       </c>
-      <c r="AT94" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="AU94" s="37">
-        <v>4.095E-2</v>
+      <c r="AT94" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU94" s="43">
+        <f>[1]Treasuries!$C$8</f>
+        <v>4.0480000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -14936,76 +15110,76 @@
         <v>80</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z95" s="1">
         <v>-948100000</v>
@@ -15049,12 +15223,12 @@
       <c r="AM95" s="1">
         <v>-375000000</v>
       </c>
-      <c r="AT95" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="AU95" s="39" cm="1">
+      <c r="AT95" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="AU95" s="45" cm="1">
         <f t="array" ref="AU95">_FV(A1,"Beta")</f>
-        <v>0.79649999999999999</v>
+        <v>0.77129999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15062,16 +15236,16 @@
         <v>81</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F96" s="1">
         <v>23000000</v>
@@ -15098,7 +15272,7 @@
         <v>304000000</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O96" s="1">
         <v>164900000</v>
@@ -15152,33 +15326,33 @@
         <v>2942000000</v>
       </c>
       <c r="AF96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH96" s="1">
         <v>1690000000</v>
       </c>
       <c r="AI96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM96" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT96" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="AU96" s="37">
+        <v>91</v>
+      </c>
+      <c r="AT96" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="AU96" s="46">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -15187,16 +15361,16 @@
         <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F97" s="1">
         <v>-8100000</v>
@@ -15223,16 +15397,16 @@
         <v>-140900000</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O97" s="1">
         <v>-311100000</v>
       </c>
       <c r="P97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R97" s="1">
         <v>-511393000</v>
@@ -15244,10 +15418,10 @@
         <v>-88871000</v>
       </c>
       <c r="U97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W97" s="1">
         <v>-300000000</v>
@@ -15274,7 +15448,7 @@
         <v>-89800000</v>
       </c>
       <c r="AE97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF97" s="1">
         <v>-500000000</v>
@@ -15300,12 +15474,12 @@
       <c r="AM97" s="1">
         <v>-3000000000</v>
       </c>
-      <c r="AT97" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="AU97" s="36">
+      <c r="AT97" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="AU97" s="42">
         <f>(AU94)+((AU95)*(AU96-AU94))</f>
-        <v>7.5239324999999996E-2</v>
+        <v>7.4046976E-2</v>
       </c>
     </row>
     <row r="98" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -15313,85 +15487,85 @@
         <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G98" s="1">
         <v>-600000</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC98" s="1">
         <v>-142200000</v>
@@ -15426,26 +15600,26 @@
       <c r="AM98" s="1">
         <v>-455000000</v>
       </c>
-      <c r="AT98" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="AU98" s="65"/>
+      <c r="AT98" s="68" t="s">
+        <v>138</v>
+      </c>
+      <c r="AU98" s="68"/>
     </row>
     <row r="99" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F99" s="1">
         <v>72300000</v>
@@ -15472,7 +15646,7 @@
         <v>874900000</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O99" s="1">
         <v>384000000</v>
@@ -15549,10 +15723,10 @@
       <c r="AM99" s="1">
         <v>1020000000</v>
       </c>
-      <c r="AT99" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="AU99" s="24">
+      <c r="AT99" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="AU99" s="40">
         <f>AU86+AU87</f>
         <v>34488000000</v>
       </c>
@@ -15562,16 +15736,16 @@
         <v>85</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F100" s="10">
         <v>87200000</v>
@@ -15598,7 +15772,7 @@
         <v>1038000000</v>
       </c>
       <c r="N100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O100" s="10">
         <v>237800000</v>
@@ -15675,12 +15849,12 @@
       <c r="AM100" s="10">
         <v>-2810000000</v>
       </c>
-      <c r="AT100" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="AU100" s="34">
+      <c r="AT100" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="AU100" s="42">
         <f>AU99/AU103</f>
-        <v>0.14439835404424931</v>
+        <v>0.14824328611108961</v>
       </c>
     </row>
     <row r="101" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15688,16 +15862,16 @@
         <v>86</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F101" s="1">
         <v>700000</v>
@@ -15724,7 +15898,7 @@
         <v>400000</v>
       </c>
       <c r="N101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O101" s="1">
         <v>-7800000</v>
@@ -15801,12 +15975,12 @@
       <c r="AM101" s="1">
         <v>-139000000</v>
       </c>
-      <c r="AT101" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="AU101" s="40" cm="1">
+      <c r="AT101" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="AU101" s="47" cm="1">
         <f t="array" ref="AU101">_FV(A1,"Market cap",TRUE)</f>
-        <v>204351287527</v>
+        <v>198156600000</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15814,16 +15988,16 @@
         <v>87</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F102" s="10">
         <v>87200000</v>
@@ -15850,7 +16024,7 @@
         <v>1038000000</v>
       </c>
       <c r="N102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O102" s="10">
         <v>237800000</v>
@@ -15927,12 +16101,12 @@
       <c r="AM102" s="10">
         <v>4046000000</v>
       </c>
-      <c r="AT102" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="AU102" s="34">
+      <c r="AT102" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="AU102" s="42">
         <f>AU101/AU103</f>
-        <v>0.85560164595575072</v>
+        <v>0.85175671388891039</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15940,16 +16114,16 @@
         <v>88</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F103" s="1">
         <v>54900000</v>
@@ -15976,7 +16150,7 @@
         <v>462900000</v>
       </c>
       <c r="N103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O103" s="1">
         <v>414400000</v>
@@ -16053,12 +16227,12 @@
       <c r="AM103" s="1">
         <v>4491000000</v>
       </c>
-      <c r="AT103" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="AU103" s="41">
+      <c r="AT103" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="AU103" s="48">
         <f>AU99+AU101</f>
-        <v>238839287527</v>
+        <v>232644600000</v>
       </c>
     </row>
     <row r="104" spans="1:47" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -16066,31 +16240,31 @@
         <v>89</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K104" s="11">
         <v>382800000</v>
@@ -16099,16 +16273,16 @@
         <v>462000000</v>
       </c>
       <c r="M104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q104" s="11">
         <v>636252000</v>
@@ -16179,502 +16353,626 @@
       <c r="AM104" s="11">
         <v>8537000000</v>
       </c>
-      <c r="AT104" s="64" t="s">
-        <v>145</v>
-      </c>
-      <c r="AU104" s="65"/>
+      <c r="AT104" s="68" t="s">
+        <v>144</v>
+      </c>
+      <c r="AU104" s="68"/>
     </row>
     <row r="105" spans="1:47" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="C105" s="1" t="e">
+        <f t="shared" ref="C105:AL105" si="10">(C22*(1-$AU$91))+C77+C88+C81</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D105" s="1" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E105" s="1" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="10"/>
+        <v>802884.49266113341</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" si="10"/>
+        <v>-91994231.014677733</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="10"/>
+        <v>-10136490.108487554</v>
+      </c>
+      <c r="I105" s="1">
+        <f t="shared" si="10"/>
+        <v>-12128257.817485645</v>
+      </c>
+      <c r="J105" s="1">
+        <f t="shared" si="10"/>
+        <v>73809917.038927883</v>
+      </c>
+      <c r="K105" s="1">
+        <f t="shared" si="10"/>
+        <v>190367338.86407146</v>
+      </c>
+      <c r="L105" s="1">
+        <f t="shared" si="10"/>
+        <v>199010861.51882577</v>
+      </c>
+      <c r="M105" s="1">
+        <f t="shared" si="10"/>
+        <v>151099987.23675811</v>
+      </c>
+      <c r="N105" s="1" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O105" s="1">
+        <f t="shared" si="10"/>
+        <v>-570418315.252074</v>
+      </c>
+      <c r="P105" s="1">
+        <f t="shared" si="10"/>
+        <v>53981123.165283978</v>
+      </c>
+      <c r="Q105" s="1">
+        <f t="shared" si="10"/>
+        <v>160089977.02616465</v>
+      </c>
+      <c r="R105" s="1">
+        <f t="shared" si="10"/>
+        <v>51831205.360561579</v>
+      </c>
+      <c r="S105" s="1">
+        <f t="shared" si="10"/>
+        <v>81998887.811104029</v>
+      </c>
+      <c r="T105" s="1">
+        <f t="shared" si="10"/>
+        <v>205357043.77791959</v>
+      </c>
+      <c r="U105" s="1">
+        <f t="shared" si="10"/>
+        <v>202550095.59668159</v>
+      </c>
+      <c r="V105" s="1">
+        <f t="shared" si="10"/>
+        <v>288781473.3886407</v>
+      </c>
+      <c r="W105" s="1">
+        <f t="shared" si="10"/>
+        <v>284498085.89661777</v>
+      </c>
+      <c r="X105" s="1">
+        <f t="shared" si="10"/>
+        <v>1443871384.8117423</v>
+      </c>
+      <c r="Y105" s="1">
+        <f t="shared" si="10"/>
+        <v>1329691359.2852585</v>
+      </c>
+      <c r="Z105" s="1">
+        <f t="shared" si="10"/>
+        <v>1649386828.3343968</v>
+      </c>
+      <c r="AA105" s="1">
+        <f t="shared" si="10"/>
+        <v>1469006100.8296106</v>
+      </c>
+      <c r="AB105" s="1">
+        <f t="shared" si="10"/>
+        <v>1465573694.9585195</v>
+      </c>
+      <c r="AC105" s="1">
+        <f t="shared" si="10"/>
+        <v>2006717702.6164646</v>
+      </c>
+      <c r="AD105" s="1">
+        <f t="shared" si="10"/>
+        <v>2341577689.8532228</v>
+      </c>
+      <c r="AE105" s="1">
+        <f t="shared" si="10"/>
+        <v>3753116847.4792595</v>
+      </c>
+      <c r="AF105" s="1">
+        <f t="shared" si="10"/>
+        <v>2992483075.9412889</v>
+      </c>
+      <c r="AG105" s="1">
+        <f t="shared" si="10"/>
+        <v>3358944084.2373962</v>
+      </c>
+      <c r="AH105" s="1">
+        <f t="shared" si="10"/>
+        <v>4920694447.98979</v>
+      </c>
+      <c r="AI105" s="1">
+        <f t="shared" si="10"/>
+        <v>4475568091.8953419</v>
+      </c>
+      <c r="AJ105" s="1">
+        <f t="shared" si="10"/>
+        <v>4917800638.1620932</v>
+      </c>
+      <c r="AK105" s="1">
+        <f t="shared" si="10"/>
+        <v>7646678749.2022972</v>
+      </c>
+      <c r="AL105" s="1">
+        <f t="shared" si="10"/>
+        <v>7683231780.4722404</v>
+      </c>
+      <c r="AM105" s="1">
+        <f>(AM22*(1-$AU$91))+AM77+AM88+AM81</f>
+        <v>8585933120.6126366</v>
+      </c>
+      <c r="AN105" s="27">
+        <f>AM105*(1+$AU$106)</f>
+        <v>9039930309.7862225</v>
+      </c>
+      <c r="AO105" s="27">
+        <f t="shared" ref="AO105:AR105" si="11">AN105*(1+$AU$106)</f>
+        <v>9517933445.067482</v>
+      </c>
+      <c r="AP105" s="27">
+        <f t="shared" si="11"/>
+        <v>10021211885.523537</v>
+      </c>
+      <c r="AQ105" s="27">
+        <f t="shared" si="11"/>
+        <v>10551102109.944012</v>
+      </c>
+      <c r="AR105" s="27">
+        <f t="shared" si="11"/>
+        <v>11109011265.921257</v>
+      </c>
+      <c r="AS105" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="AT105" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15" t="e">
-        <f>(C106/B106)-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D105" s="15" t="e">
-        <f>(D106/C106)-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E105" s="15" t="e">
-        <f>(E106/D106)-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F105" s="15" t="e">
-        <f>(F106/E106)-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G105" s="15">
-        <f>(G106/F106)-1</f>
-        <v>337</v>
-      </c>
-      <c r="H105" s="15">
-        <f t="shared" ref="H105:AM105" si="8">(H106/G106)-1</f>
-        <v>-0.89644970414201186</v>
-      </c>
-      <c r="I105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.51428571428571423</v>
-      </c>
-      <c r="J105" s="15">
-        <f t="shared" si="8"/>
-        <v>-14.745098039215685</v>
-      </c>
-      <c r="K105" s="15">
-        <f t="shared" si="8"/>
-        <v>1.0542082738944365</v>
-      </c>
-      <c r="L105" s="15">
-        <f t="shared" si="8"/>
-        <v>-8.5416666666666696E-2</v>
-      </c>
-      <c r="M105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.24069855732725887</v>
-      </c>
-      <c r="N105" s="15" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O105" s="15" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.8948966314876392</v>
-      </c>
-      <c r="Q105" s="15">
-        <f t="shared" si="8"/>
-        <v>-2.7315268225584592</v>
-      </c>
-      <c r="R105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.17699115044247793</v>
-      </c>
-      <c r="S105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.50116793112102087</v>
-      </c>
-      <c r="T105" s="15">
-        <f t="shared" si="8"/>
-        <v>2.3007546439628483</v>
-      </c>
-      <c r="U105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.2575989401054033</v>
-      </c>
-      <c r="V105" s="15">
-        <f t="shared" si="8"/>
-        <v>5.9867148351008037E-2</v>
-      </c>
-      <c r="W105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.44636448400830364</v>
-      </c>
-      <c r="X105" s="15">
-        <f t="shared" si="8"/>
-        <v>2.977412674810024</v>
-      </c>
-      <c r="Y105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.11636085626911319</v>
-      </c>
-      <c r="Z105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.25601315106419786</v>
-      </c>
-      <c r="AA105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.15113315423296825</v>
-      </c>
-      <c r="AB105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.15596851416051294</v>
-      </c>
-      <c r="AC105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.21053001053001053</v>
-      </c>
-      <c r="AD105" s="15">
-        <f t="shared" si="8"/>
-        <v>2.2616562282533614E-3</v>
-      </c>
-      <c r="AE105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.26829832783660246</v>
-      </c>
-      <c r="AF105" s="15">
-        <f t="shared" si="8"/>
-        <v>9.2153284671532942E-2</v>
-      </c>
-      <c r="AG105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.13279030910609868</v>
-      </c>
-      <c r="AH105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.28950182528854307</v>
-      </c>
-      <c r="AI105" s="15">
-        <f t="shared" si="8"/>
-        <v>8.2356305404632568E-2</v>
-      </c>
-      <c r="AJ105" s="15">
-        <f t="shared" si="8"/>
-        <v>6.9220607661822919E-2</v>
-      </c>
-      <c r="AK105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.68396342970101309</v>
-      </c>
-      <c r="AL105" s="15">
-        <f t="shared" si="8"/>
-        <v>-3.8151137197358631E-3</v>
-      </c>
-      <c r="AM105" s="15">
-        <f t="shared" si="8"/>
-        <v>1.7970245986154154E-2</v>
-      </c>
-      <c r="AN105" s="15"/>
-      <c r="AO105" s="15"/>
-      <c r="AP105" s="15"/>
-      <c r="AQ105" s="15"/>
-      <c r="AR105" s="15"/>
-      <c r="AS105" s="15"/>
-      <c r="AT105" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AU105" s="26">
+      <c r="AU105" s="50">
         <f>(AU100*AU92)+(AU102*AU97)</f>
-        <v>6.714185226348833E-2</v>
+        <v>6.5910647510768985E-2</v>
       </c>
     </row>
     <row r="106" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F106" s="1">
-        <v>-300000</v>
-      </c>
-      <c r="G106" s="1">
-        <v>-101400000</v>
-      </c>
-      <c r="H106" s="1">
-        <v>-10500000</v>
-      </c>
-      <c r="I106" s="1">
-        <v>-5100000</v>
-      </c>
-      <c r="J106" s="1">
-        <v>70100000</v>
-      </c>
-      <c r="K106" s="1">
-        <v>144000000</v>
-      </c>
-      <c r="L106" s="1">
-        <v>131700000</v>
-      </c>
-      <c r="M106" s="1">
-        <v>100000000</v>
-      </c>
-      <c r="N106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="O106" s="1">
-        <v>-691700000</v>
-      </c>
-      <c r="P106" s="1">
-        <v>-72700000</v>
-      </c>
-      <c r="Q106" s="1">
-        <v>125882000</v>
-      </c>
-      <c r="R106" s="1">
-        <v>103602000</v>
-      </c>
-      <c r="S106" s="1">
-        <v>51680000</v>
-      </c>
-      <c r="T106" s="1">
-        <v>170583000</v>
-      </c>
-      <c r="U106" s="1">
-        <v>214525000</v>
-      </c>
-      <c r="V106" s="1">
-        <v>227368000</v>
-      </c>
-      <c r="W106" s="1">
-        <v>328857000</v>
-      </c>
-      <c r="X106" s="1">
-        <v>1308000000</v>
-      </c>
-      <c r="Y106" s="1">
-        <v>1155800000</v>
-      </c>
-      <c r="Z106" s="1">
-        <v>1451700000</v>
-      </c>
-      <c r="AA106" s="1">
-        <v>1232300000</v>
-      </c>
-      <c r="AB106" s="1">
-        <v>1424500000</v>
-      </c>
-      <c r="AC106" s="1">
-        <v>1724400000</v>
-      </c>
-      <c r="AD106" s="1">
-        <v>1728300000</v>
-      </c>
-      <c r="AE106" s="1">
-        <v>2192000000</v>
-      </c>
-      <c r="AF106" s="1">
-        <v>2394000000</v>
-      </c>
-      <c r="AG106" s="1">
-        <v>2711900000</v>
-      </c>
-      <c r="AH106" s="1">
-        <v>3497000000</v>
-      </c>
-      <c r="AI106" s="1">
-        <v>3785000000</v>
-      </c>
-      <c r="AJ106" s="1">
-        <v>4047000000</v>
-      </c>
-      <c r="AK106" s="1">
-        <v>6815000000</v>
-      </c>
-      <c r="AL106" s="1">
-        <v>6789000000</v>
-      </c>
-      <c r="AM106" s="1">
-        <v>6911000000</v>
-      </c>
-      <c r="AN106" s="42">
-        <f>AM106*(1+$AU$106)</f>
-        <v>7419184526.5467196</v>
-      </c>
-      <c r="AO106" s="42">
-        <f t="shared" ref="AO106:AR106" si="9">AN106*(1+$AU$106)</f>
-        <v>7964737236.1380796</v>
-      </c>
-      <c r="AP106" s="42">
-        <f t="shared" si="9"/>
-        <v>8550405912.3666801</v>
-      </c>
-      <c r="AQ106" s="42">
-        <f t="shared" si="9"/>
-        <v>9179140390.7863483</v>
-      </c>
-      <c r="AR106" s="42">
-        <f t="shared" si="9"/>
-        <v>9854107416.3394718</v>
-      </c>
-      <c r="AS106" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="AT106" s="44" t="s">
-        <v>147</v>
-      </c>
-      <c r="AU106" s="45">
+      <c r="A106" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15" t="e">
+        <f t="shared" ref="C106:AM106" si="12">(C107/B107)-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D106" s="15" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E106" s="15" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F106" s="15" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G106" s="15">
+        <f t="shared" si="12"/>
+        <v>337</v>
+      </c>
+      <c r="H106" s="15">
+        <f t="shared" si="12"/>
+        <v>-0.89644970414201186</v>
+      </c>
+      <c r="I106" s="15">
+        <f t="shared" si="12"/>
+        <v>-0.51428571428571423</v>
+      </c>
+      <c r="J106" s="15">
+        <f t="shared" si="12"/>
+        <v>-14.745098039215685</v>
+      </c>
+      <c r="K106" s="15">
+        <f t="shared" si="12"/>
+        <v>1.0542082738944365</v>
+      </c>
+      <c r="L106" s="15">
+        <f t="shared" si="12"/>
+        <v>-8.5416666666666696E-2</v>
+      </c>
+      <c r="M106" s="15">
+        <f t="shared" si="12"/>
+        <v>-0.24069855732725887</v>
+      </c>
+      <c r="N106" s="15" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O106" s="15" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P106" s="15">
+        <f t="shared" si="12"/>
+        <v>-0.8948966314876392</v>
+      </c>
+      <c r="Q106" s="15">
+        <f t="shared" si="12"/>
+        <v>-2.7315268225584592</v>
+      </c>
+      <c r="R106" s="15">
+        <f t="shared" si="12"/>
+        <v>-0.17699115044247793</v>
+      </c>
+      <c r="S106" s="15">
+        <f t="shared" si="12"/>
+        <v>-0.50116793112102087</v>
+      </c>
+      <c r="T106" s="15">
+        <f t="shared" si="12"/>
+        <v>2.3007546439628483</v>
+      </c>
+      <c r="U106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.2575989401054033</v>
+      </c>
+      <c r="V106" s="15">
+        <f t="shared" si="12"/>
+        <v>5.9867148351008037E-2</v>
+      </c>
+      <c r="W106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.44636448400830364</v>
+      </c>
+      <c r="X106" s="15">
+        <f t="shared" si="12"/>
+        <v>2.977412674810024</v>
+      </c>
+      <c r="Y106" s="15">
+        <f t="shared" si="12"/>
+        <v>-0.11636085626911319</v>
+      </c>
+      <c r="Z106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.25601315106419786</v>
+      </c>
+      <c r="AA106" s="15">
+        <f t="shared" si="12"/>
+        <v>-0.15113315423296825</v>
+      </c>
+      <c r="AB106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.15596851416051294</v>
+      </c>
+      <c r="AC106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.21053001053001053</v>
+      </c>
+      <c r="AD106" s="15">
+        <f t="shared" si="12"/>
+        <v>2.2616562282533614E-3</v>
+      </c>
+      <c r="AE106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.26829832783660246</v>
+      </c>
+      <c r="AF106" s="15">
+        <f t="shared" si="12"/>
+        <v>9.2153284671532942E-2</v>
+      </c>
+      <c r="AG106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.13279030910609868</v>
+      </c>
+      <c r="AH106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.28950182528854307</v>
+      </c>
+      <c r="AI106" s="15">
+        <f t="shared" si="12"/>
+        <v>8.2356305404632568E-2</v>
+      </c>
+      <c r="AJ106" s="15">
+        <f t="shared" si="12"/>
+        <v>6.9220607661822919E-2</v>
+      </c>
+      <c r="AK106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.68396342970101309</v>
+      </c>
+      <c r="AL106" s="15">
+        <f t="shared" si="12"/>
+        <v>-3.8151137197358631E-3</v>
+      </c>
+      <c r="AM106" s="15">
+        <f t="shared" si="12"/>
+        <v>1.7970245986154154E-2</v>
+      </c>
+      <c r="AN106" s="63">
+        <v>8600000000</v>
+      </c>
+      <c r="AO106" s="63">
+        <v>9236000000</v>
+      </c>
+      <c r="AP106" s="63">
+        <v>10288000000</v>
+      </c>
+      <c r="AQ106" s="63">
+        <v>11494000000</v>
+      </c>
+      <c r="AR106" s="63">
+        <v>12973000000</v>
+      </c>
+      <c r="AS106" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="AT106" s="51" t="s">
+        <v>145</v>
+      </c>
+      <c r="AU106" s="52">
         <f>(SUM(AN4:AR4)/5)</f>
-        <v>7.3532705331604692E-2</v>
+        <v>5.2876860650551152E-2</v>
       </c>
     </row>
     <row r="107" spans="1:47" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
-      <c r="O107" s="13"/>
-      <c r="P107" s="13"/>
-      <c r="Q107" s="13"/>
-      <c r="R107" s="13"/>
-      <c r="S107" s="13"/>
-      <c r="T107" s="13"/>
-      <c r="U107" s="13"/>
-      <c r="V107" s="13"/>
-      <c r="W107" s="13"/>
-      <c r="X107" s="13"/>
-      <c r="Y107" s="13"/>
-      <c r="Z107" s="13"/>
-      <c r="AA107" s="13"/>
-      <c r="AB107" s="13"/>
-      <c r="AC107" s="13"/>
-      <c r="AD107" s="13"/>
-      <c r="AE107" s="13"/>
-      <c r="AF107" s="13"/>
-      <c r="AG107" s="13"/>
-      <c r="AH107" s="13"/>
-      <c r="AI107" s="13"/>
-      <c r="AJ107" s="13"/>
-      <c r="AK107" s="13"/>
-      <c r="AL107" s="13"/>
-      <c r="AM107" s="13"/>
-      <c r="AN107" s="43"/>
-      <c r="AO107" s="43"/>
-      <c r="AP107" s="43"/>
-      <c r="AQ107" s="43"/>
-      <c r="AR107" s="46">
+      <c r="A107" s="62" t="s">
+        <v>164</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F107" s="1">
+        <v>-300000</v>
+      </c>
+      <c r="G107" s="1">
+        <v>-101400000</v>
+      </c>
+      <c r="H107" s="1">
+        <v>-10500000</v>
+      </c>
+      <c r="I107" s="1">
+        <v>-5100000</v>
+      </c>
+      <c r="J107" s="1">
+        <v>70100000</v>
+      </c>
+      <c r="K107" s="1">
+        <v>144000000</v>
+      </c>
+      <c r="L107" s="1">
+        <v>131700000</v>
+      </c>
+      <c r="M107" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="N107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="O107" s="1">
+        <v>-691700000</v>
+      </c>
+      <c r="P107" s="1">
+        <v>-72700000</v>
+      </c>
+      <c r="Q107" s="1">
+        <v>125882000</v>
+      </c>
+      <c r="R107" s="1">
+        <v>103602000</v>
+      </c>
+      <c r="S107" s="1">
+        <v>51680000</v>
+      </c>
+      <c r="T107" s="1">
+        <v>170583000</v>
+      </c>
+      <c r="U107" s="1">
+        <v>214525000</v>
+      </c>
+      <c r="V107" s="1">
+        <v>227368000</v>
+      </c>
+      <c r="W107" s="1">
+        <v>328857000</v>
+      </c>
+      <c r="X107" s="1">
+        <v>1308000000</v>
+      </c>
+      <c r="Y107" s="1">
+        <v>1155800000</v>
+      </c>
+      <c r="Z107" s="1">
+        <v>1451700000</v>
+      </c>
+      <c r="AA107" s="1">
+        <v>1232300000</v>
+      </c>
+      <c r="AB107" s="1">
+        <v>1424500000</v>
+      </c>
+      <c r="AC107" s="1">
+        <v>1724400000</v>
+      </c>
+      <c r="AD107" s="1">
+        <v>1728300000</v>
+      </c>
+      <c r="AE107" s="1">
+        <v>2192000000</v>
+      </c>
+      <c r="AF107" s="1">
+        <v>2394000000</v>
+      </c>
+      <c r="AG107" s="1">
+        <v>2711900000</v>
+      </c>
+      <c r="AH107" s="1">
+        <v>3497000000</v>
+      </c>
+      <c r="AI107" s="1">
+        <v>3785000000</v>
+      </c>
+      <c r="AJ107" s="1">
+        <v>4047000000</v>
+      </c>
+      <c r="AK107" s="1">
+        <v>6815000000</v>
+      </c>
+      <c r="AL107" s="1">
+        <v>6789000000</v>
+      </c>
+      <c r="AM107" s="1">
+        <v>6911000000</v>
+      </c>
+      <c r="AN107" s="28"/>
+      <c r="AO107" s="28"/>
+      <c r="AP107" s="28"/>
+      <c r="AQ107" s="28"/>
+      <c r="AR107" s="64">
         <f>AR106*(1+AU107)/(AU108-AU107)</f>
-        <v>239677649634.28027</v>
-      </c>
-      <c r="AS107" s="47" t="s">
-        <v>148</v>
-      </c>
-      <c r="AT107" s="48" t="s">
-        <v>149</v>
-      </c>
-      <c r="AU107" s="49">
+        <v>325033354617.5166</v>
+      </c>
+      <c r="AS107" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="AT107" s="53" t="s">
+        <v>147</v>
+      </c>
+      <c r="AU107" s="54">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN108" s="46">
-        <f t="shared" ref="AN108:AP108" si="10">AN107+AN106</f>
-        <v>7419184526.5467196</v>
-      </c>
-      <c r="AO108" s="46">
-        <f t="shared" si="10"/>
-        <v>7964737236.1380796</v>
-      </c>
-      <c r="AP108" s="46">
-        <f t="shared" si="10"/>
-        <v>8550405912.3666801</v>
-      </c>
-      <c r="AQ108" s="46">
-        <f>AQ107+AQ106</f>
-        <v>9179140390.7863483</v>
-      </c>
-      <c r="AR108" s="46">
+      <c r="AN108" s="64">
+        <f t="shared" ref="AN108:AQ108" si="13">AN107+AN106</f>
+        <v>8600000000</v>
+      </c>
+      <c r="AO108" s="64">
+        <f t="shared" si="13"/>
+        <v>9236000000</v>
+      </c>
+      <c r="AP108" s="64">
+        <f t="shared" si="13"/>
+        <v>10288000000</v>
+      </c>
+      <c r="AQ108" s="64">
+        <f t="shared" si="13"/>
+        <v>11494000000</v>
+      </c>
+      <c r="AR108" s="64">
         <f>AR107+AR106</f>
-        <v>249531757050.61975</v>
-      </c>
-      <c r="AS108" s="47" t="s">
-        <v>144</v>
-      </c>
-      <c r="AT108" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="AU108" s="51">
+        <v>338006354617.5166</v>
+      </c>
+      <c r="AS108" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="AT108" s="55" t="s">
+        <v>148</v>
+      </c>
+      <c r="AU108" s="52">
         <f>AU105</f>
-        <v>6.714185226348833E-2</v>
+        <v>6.5910647510768985E-2</v>
       </c>
     </row>
     <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN109" s="60" t="s">
-        <v>151</v>
-      </c>
-      <c r="AO109" s="61"/>
+      <c r="AN109" s="65" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO109" s="65"/>
     </row>
     <row r="110" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN110" s="52" t="s">
-        <v>152</v>
-      </c>
-      <c r="AO110" s="40">
+      <c r="AN110" s="56" t="s">
+        <v>150</v>
+      </c>
+      <c r="AO110" s="47">
         <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
-        <v>208368395740.29071</v>
+        <v>279248791169.45209</v>
       </c>
     </row>
     <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN111" s="52" t="s">
-        <v>153</v>
-      </c>
-      <c r="AO111" s="40">
+      <c r="AN111" s="56" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO111" s="47">
         <f>AM40</f>
         <v>8524000000</v>
       </c>
     </row>
     <row r="112" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN112" s="52" t="s">
-        <v>140</v>
-      </c>
-      <c r="AO112" s="40">
+      <c r="AN112" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="AO112" s="47">
         <f>AU99</f>
         <v>34488000000</v>
       </c>
     </row>
     <row r="113" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN113" s="52" t="s">
-        <v>154</v>
-      </c>
-      <c r="AO113" s="40">
+      <c r="AN113" s="56" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO113" s="47">
         <f>AO110+AO111-AO112</f>
-        <v>182404395740.29071</v>
+        <v>253284791169.45209</v>
       </c>
     </row>
     <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN114" s="52" t="s">
-        <v>155</v>
-      </c>
-      <c r="AO114" s="53">
+      <c r="AN114" s="56" t="s">
+        <v>153</v>
+      </c>
+      <c r="AO114" s="56">
         <f>AM34*(1+(5*AS16))</f>
         <v>390145330.64733309</v>
       </c>
     </row>
     <row r="115" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN115" s="54" t="s">
-        <v>156</v>
-      </c>
-      <c r="AO115" s="55">
+      <c r="AN115" s="57" t="s">
+        <v>154</v>
+      </c>
+      <c r="AO115" s="58">
         <f>AO113/AO114</f>
-        <v>467.52935742597123</v>
+        <v>649.20626052143029</v>
       </c>
     </row>
     <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN116" s="52" t="s">
-        <v>157</v>
-      </c>
-      <c r="AO116" s="56" cm="1">
+      <c r="AN116" s="56" t="s">
+        <v>155</v>
+      </c>
+      <c r="AO116" s="59" cm="1">
         <f t="array" ref="AO116">_FV(A1,"Price")</f>
-        <v>529.79</v>
+        <v>513.73</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
       <c r="AN117" s="57" t="s">
-        <v>158</v>
-      </c>
-      <c r="AO117" s="58">
+        <v>156</v>
+      </c>
+      <c r="AO117" s="60">
         <f>AO115/AO116-1</f>
-        <v>-0.11751947483725389</v>
+        <v>0.26371101652897488</v>
       </c>
     </row>
     <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">
       <c r="AN118" s="57" t="s">
-        <v>159</v>
-      </c>
-      <c r="AO118" s="59" t="str">
+        <v>157</v>
+      </c>
+      <c r="AO118" s="61" t="str">
         <f>IF(AO115&gt;AO116,"BUY","SELL")</f>
-        <v>SELL</v>
+        <v>BUY</v>
       </c>
     </row>
   </sheetData>
@@ -16765,8 +17063,9 @@
     <hyperlink ref="AM36" r:id="rId76" tooltip="https://www.sec.gov/Archives/edgar/data/97745/000009774523000008/0000097745-23-000008-index.htm" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
     <hyperlink ref="AM74" r:id="rId77" tooltip="https://www.sec.gov/Archives/edgar/data/97745/000009774523000008/0000097745-23-000008-index.htm" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
     <hyperlink ref="AN1" r:id="rId78" display="https://finbox.com/NYSE:TMO/explorer/revenue_proj" xr:uid="{9AF5E342-0683-CB46-958F-18D6C80F203E}"/>
+    <hyperlink ref="AS106" r:id="rId79" xr:uid="{4EE294B5-BD66-0746-9484-A028F0D533EE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId79"/>
+  <drawing r:id="rId80"/>
 </worksheet>
 </file>
--- a/Healthcare/Thermo Fisher Scientific.xlsx
+++ b/Healthcare/Thermo Fisher Scientific.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Healthcare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11E56E1-31EB-B145-90B6-FD77B2CC8AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F819237-5BE7-C149-AE2A-C5D0EE6890A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40960" yWindow="5540" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -2567,13 +2567,12 @@
     <v>a24bsm</v>
     <v>268435456</v>
     <v>1</v>
-    <v>2</v>
     <v>Powered by Refinitiv</v>
     <v>611.05999999999995</v>
     <v>475.77</v>
     <v>0.77129999999999999</v>
-    <v>-3.59</v>
-    <v>-6.9399999999999991E-3</v>
+    <v>3.12</v>
+    <v>6.0729999999999994E-3</v>
     <v>USD</v>
     <v>Thermo Fisher Scientific Inc. is engaged in serving science. The Company operates through four segments. Life Sciences Solutions segment provides a portfolio of reagents, instruments and consumables used in biological and medical research, discovery and production of new drugs and vaccines, as well as diagnosis of infection and disease. Analytical Instruments segment provides an offering of instruments and the supporting consumables, software and services that are used for a range of applications. Specialty Diagnostics segment offers a range of diagnostic test kits, reagents, culture media, instruments and associated products to serve customers in healthcare, clinical, pharmaceutical, industrial and food safety laboratories. Laboratory Products and Biopharma Services segment offers virtually everything needed for the laboratory. Its brands, including Thermo Scientific, Applied Biosystems, Invitrogen, Fisher Scientific, Unity Lab Services, Patheon and PPD.</v>
     <v>130000</v>
@@ -2581,24 +2580,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>168 Third Avenue, WALTHAM, MA, 02451 US</v>
-    <v>519.46</v>
+    <v>518.91999999999996</v>
     <v>Healthcare Equipment &amp; Supplies</v>
     <v>Stock</v>
-    <v>45114.958333344533</v>
+    <v>45117.99859854141</v>
     <v>0</v>
-    <v>513.30999999999995</v>
-    <v>198156600000</v>
+    <v>511.19</v>
+    <v>199360053905</v>
     <v>THERMO FISHER SCIENTIFIC INC.</v>
     <v>THERMO FISHER SCIENTIFIC INC.</v>
-    <v>515</v>
-    <v>33.466200000000001</v>
-    <v>517.32000000000005</v>
+    <v>512.49</v>
+    <v>33.669400000000003</v>
     <v>513.73</v>
+    <v>516.85</v>
     <v>385721300</v>
     <v>TMO</v>
     <v>THERMO FISHER SCIENTIFIC INC. (XNYS:TMO)</v>
-    <v>383</v>
-    <v>1778624</v>
+    <v>1026605</v>
+    <v>1657364</v>
     <v>1960</v>
   </rv>
   <rv s="2">
@@ -2624,7 +2623,6 @@
     <k n="%EntityId" t="s"/>
     <k n="%EntityServiceId"/>
     <k n="%IsRefreshable" t="b"/>
-    <k n="%OutdatedReason" t="i"/>
     <k n="%ProviderInfo" t="s"/>
     <k n="52 week high"/>
     <k n="52 week low"/>
@@ -2667,7 +2665,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="43">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2710,7 +2708,6 @@
       <v t="s">LearnMoreOnLink</v>
       <v t="s">ExchangeID</v>
       <v t="s">%ProviderInfo</v>
-      <v t="s">%OutdatedReason</v>
     </a>
   </spbArrays>
   <spbData count="5">
@@ -3173,7 +3170,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="AK84" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AN95" sqref="AN95"/>
+      <selection pane="bottomRight" activeCell="AQ96" sqref="AQ96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5389,15 +5386,15 @@
       </c>
       <c r="AT16" s="35">
         <f>AU101/AM3</f>
-        <v>4.4118134253590116</v>
+        <v>4.4386074564176781</v>
       </c>
       <c r="AU16" s="35">
         <f>AU101/AM28</f>
-        <v>28.511741007194246</v>
+        <v>28.684899842446043</v>
       </c>
       <c r="AV16" s="36">
         <f>AU101/AM107</f>
-        <v>28.672637823759224</v>
+        <v>28.846773825061497</v>
       </c>
     </row>
     <row r="17" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -5789,15 +5786,15 @@
       </c>
       <c r="AT19" s="35">
         <f>AU101/AN3</f>
-        <v>4.3738351175366956</v>
+        <v>4.4003984969650149</v>
       </c>
       <c r="AU19" s="35">
         <f>AU101/AN28</f>
-        <v>21.531739650114094</v>
+        <v>21.662507215581876</v>
       </c>
       <c r="AV19" s="36">
         <f>AU101/AN105</f>
-        <v>21.920146860588577</v>
+        <v>22.053273318842045</v>
       </c>
     </row>
     <row r="20" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -6239,11 +6236,11 @@
       </c>
       <c r="AU22" s="37">
         <f>(-1*AM98)/AU101</f>
-        <v>2.2961637412026652E-3</v>
+        <v>2.2823027536741074E-3</v>
       </c>
       <c r="AV22" s="38">
         <f>AM107/AU101</f>
-        <v>3.4876456297695861E-2</v>
+        <v>3.466592160580606E-2</v>
       </c>
     </row>
     <row r="23" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -15854,7 +15851,7 @@
       </c>
       <c r="AU100" s="42">
         <f>AU99/AU103</f>
-        <v>0.14824328611108961</v>
+        <v>0.14748038063216312</v>
       </c>
     </row>
     <row r="101" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15980,7 +15977,7 @@
       </c>
       <c r="AU101" s="47" cm="1">
         <f t="array" ref="AU101">_FV(A1,"Market cap",TRUE)</f>
-        <v>198156600000</v>
+        <v>199360053905</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16106,7 +16103,7 @@
       </c>
       <c r="AU102" s="42">
         <f>AU101/AU103</f>
-        <v>0.85175671388891039</v>
+        <v>0.85251961936783682</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16232,7 +16229,7 @@
       </c>
       <c r="AU103" s="48">
         <f>AU99+AU101</f>
-        <v>232644600000</v>
+        <v>233848053905</v>
       </c>
     </row>
     <row r="104" spans="1:47" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -16538,7 +16535,7 @@
       </c>
       <c r="AU105" s="50">
         <f>(AU100*AU92)+(AU102*AU97)</f>
-        <v>6.5910647510768985E-2</v>
+        <v>6.5952519556010405E-2</v>
       </c>
     </row>
     <row r="106" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16844,7 +16841,7 @@
       <c r="AQ107" s="28"/>
       <c r="AR107" s="64">
         <f>AR106*(1+AU107)/(AU108-AU107)</f>
-        <v>325033354617.5166</v>
+        <v>324701023140.06256</v>
       </c>
       <c r="AS107" s="29" t="s">
         <v>146</v>
@@ -16875,7 +16872,7 @@
       </c>
       <c r="AR108" s="64">
         <f>AR107+AR106</f>
-        <v>338006354617.5166</v>
+        <v>337674023140.06256</v>
       </c>
       <c r="AS108" s="29" t="s">
         <v>143</v>
@@ -16885,7 +16882,7 @@
       </c>
       <c r="AU108" s="52">
         <f>AU105</f>
-        <v>6.5910647510768985E-2</v>
+        <v>6.5952519556010405E-2</v>
       </c>
     </row>
     <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16900,7 +16897,7 @@
       </c>
       <c r="AO110" s="47">
         <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
-        <v>279248791169.45209</v>
+        <v>278955711045.72998</v>
       </c>
     </row>
     <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16927,7 +16924,7 @@
       </c>
       <c r="AO113" s="47">
         <f>AO110+AO111-AO112</f>
-        <v>253284791169.45209</v>
+        <v>252991711045.72998</v>
       </c>
     </row>
     <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16945,7 +16942,7 @@
       </c>
       <c r="AO115" s="58">
         <f>AO113/AO114</f>
-        <v>649.20626052143029</v>
+        <v>648.45505295671126</v>
       </c>
     </row>
     <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16954,7 +16951,7 @@
       </c>
       <c r="AO116" s="59" cm="1">
         <f t="array" ref="AO116">_FV(A1,"Price")</f>
-        <v>513.73</v>
+        <v>516.85</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16963,7 +16960,7 @@
       </c>
       <c r="AO117" s="60">
         <f>AO115/AO116-1</f>
-        <v>0.26371101652897488</v>
+        <v>0.25462910507247982</v>
       </c>
     </row>
     <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">
